--- a/templates/metadata_template.xlsx
+++ b/templates/metadata_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <sheet name="PERTURBATIONS" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">README!$A$21:$E$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">README!$A$21:$E$80</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -4224,11 +4224,18 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4250,6 +4257,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF92CDDC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF93CDDD"/>
         </patternFill>
       </fill>
@@ -4258,6 +4272,20 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4350,11 +4378,11 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30"/>
@@ -5022,7 +5050,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="42.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
         <v>15</v>
       </c>
@@ -33013,7 +33041,7 @@
       <c r="Z1004" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A21:E27"/>
+  <autoFilter ref="A21:E80"/>
   <mergeCells count="26">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
@@ -33069,7 +33097,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
@@ -33119,16 +33147,16 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.34"/>
@@ -34262,7 +34290,7 @@
       <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -35387,7 +35415,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
@@ -36447,7 +36475,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36"/>
@@ -37492,7 +37520,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.15"/>

--- a/templates/metadata_template.xlsx
+++ b/templates/metadata_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Desktop\bacterial_growth\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E65440-D4AE-4588-B39F-4ADE70732EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8151280-6655-4077-B739-E2A11B36462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,10 +74,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGguE08
-Haris Zafeiropoulos    (2024-04-18 13:05:18)
-Complete with the unique Project ID. You should have received this on your email. Do NOT add spaces.</t>
+          <t>Complete with the unique Project ID. You should have received this on your email. Do NOT add spaces.</t>
         </r>
       </text>
     </comment>
@@ -90,10 +87,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGguE1E
-Haris Zafeiropoulos    (2024-04-18 13:07:53)
-In case you are about to edit/update a previous study, you need to complete this with the unique ID you received through your email when first uploaded the study. If this study is new leave theis cell blank. Do NOT add spaces.</t>
+          <t>In case you are about to edit/update a previous study, you need to complete this with the unique ID you received through your email when first uploaded the study. If this study is new leave theis cell blank. Do NOT add spaces.</t>
         </r>
       </text>
     </comment>
@@ -106,10 +100,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_20
-HZ    (2024-04-18 08:25:55)
-Give an informative name to your study. Adding spaces allowed.</t>
+          <t>Give an informative name to your study. Adding spaces allowed.</t>
         </r>
       </text>
     </comment>
@@ -138,10 +129,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSk
-HZ    (2024-04-18 08:25:55)
-Fill in with the publication URL if published. If not leave in BLANK.</t>
+          <t>Fill in with the publication URL if published. If not leave in BLANK.</t>
         </r>
       </text>
     </comment>
@@ -164,10 +152,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVTA
-HZ    (2024-04-18 08:25:55)
-Create a unique Event_ID per event in your study. Only one value allowed per celd.</t>
+          <t>Create a unique Event_ID per event in your study. Only one value allowed per celd.</t>
         </r>
       </text>
     </comment>
@@ -180,10 +165,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVT4
-HZ    (2024-04-18 08:25:55)
-Associate the Biological_Replicate_IDs provided in the data template with their event. Multiple values allowed, separate them by a comma (,).</t>
+          <t>Associate the Biological_Replicate_IDs provided in the data template with their event. Multiple values allowed, separate them by a comma (,).</t>
         </r>
       </text>
     </comment>
@@ -196,10 +178,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_24
-HZ    (2024-04-18 08:25:55)
-Description of the biological replicate. Adding spaces allowed</t>
+          <t>Description of the biological replicate. Adding spaces allowed</t>
         </r>
       </text>
     </comment>
@@ -212,10 +191,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVS4
-HZ    (2024-04-18 08:25:55)
-Complete each celd with the compartment or set of compartments that composed each event. Multiple compartments allowed, separate them by a comma (,). Please notice that these will be the same of all the Biological_Replicate_IDs in the correspoding row. Compatment_ID must match the one completed in COMPARTMENTS sheet.</t>
+          <t>Complete each celd with the compartment or set of compartments that composed each event. Multiple compartments allowed, separate them by a comma (,). Please notice that these will be the same of all the Biological_Replicate_IDs in the correspoding row. Compatment_ID must match the one completed in COMPARTMENTS sheet.</t>
         </r>
       </text>
     </comment>
@@ -228,10 +204,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_2g
-HZ    (2024-04-18 08:25:55)
-Complete with the Comunity_ID used in COMUNITIES. Specify more than one ID in case of multiple compartments. If all the compartments used the same community, repeat this Community_ID as many compartments specified in the corresponding row.</t>
+          <t>Complete with the Comunity_ID used in COMUNITIES. Specify more than one ID in case of multiple compartments. If all the compartments used the same community, repeat this Community_ID as many compartments specified in the corresponding row.</t>
         </r>
       </text>
     </comment>
@@ -260,26 +233,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_3A
-HZ    (2024-04-18 08:25:55)
-Complete with the following options: chemostat/batch/fed-batch. Only one value alowed per celd.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <charset val="1"/>
-          </rPr>
-          <t>======
-ID#AAABMGkR_3I
-HZ    (2024-04-18 08:25:55)
-Fill in with 1 if the biological replicate is blank. 0 otherwise. DO NOT leave in blank.</t>
+          <t>Complete with the following options: chemostat/batch/fed-batch. Only one value alowed per celd.</t>
         </r>
       </text>
     </comment>
@@ -292,10 +246,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVTs
-HZ    (2024-04-18 08:25:55)
-OPTIONS: OD/Plate-Counts/FC/16S-seq. Compleate with more than one method is ALLOWED, separate them by a comma(,).</t>
+          <t>OPTIONS: OD/Plate-Counts/FC/16S-seq. Compleate with more than one method is ALLOWED, separate them by a comma(,).</t>
         </r>
       </text>
     </comment>
@@ -308,10 +259,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSM
-HZ    (2024-04-18 08:25:55)
-Complete with each of the units used per Growth technique (Growth_Technique). Please complete in the same order as the Growth_Technique celds.</t>
+          <t>Complete with each of the units used per Growth technique (Growth_Technique). Please complete in the same order as the Growth_Technique celds.</t>
         </r>
       </text>
     </comment>
@@ -335,8 +283,6 @@
             <charset val="1"/>
           </rPr>
           <t>======
-ID#AAABMGTgVTY
-HZ    (2024-04-18 08:25:55)
 Represent each of the different compartments with specific enviromental conditions used in the events of your experiment. Please  notice that these IDs will be mapped in the STUDY_DATA sheet.</t>
         </r>
       </text>
@@ -350,10 +296,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSg
-HZ    (2024-04-18 08:25:55)
-Volume used for the compartment (reactor/vessel). Volume in mL. Numerical values ONLY.</t>
+          <t>Volume used for the compartment (reactor/vessel). Volume in mL. Numerical values ONLY.</t>
         </r>
       </text>
     </comment>
@@ -366,10 +309,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVTE
-HZ    (2024-04-18 08:25:55)
-Pressure of the compartment in atm. Numerical values ONLY.</t>
+          <t>Pressure of the compartment in atm. Numerical values ONLY.</t>
         </r>
       </text>
     </comment>
@@ -383,8 +323,6 @@
             <charset val="1"/>
           </rPr>
           <t>======
-ID#AAABMGkR_2Q
-HZ    (2024-04-18 08:25:55)
 Stirring mode used. Complete with one of the options: linear, orbital, vibrational. OPTIONAL, leaving in BLANK ALLOWED.</t>
         </r>
       </text>
@@ -398,10 +336,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVTM
-HZ    (2024-04-18 08:25:55)
-Stirring speed used in rpm. Numerical values ONLY.</t>
+          <t>Stirring speed used in rpm. Numerical values ONLY.</t>
         </r>
       </text>
     </comment>
@@ -414,10 +349,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVTk
-HZ    (2024-04-18 08:25:55)
-If no Oxigen used complete with 0. Numerical values ONLY.</t>
+          <t>If no Oxigen used complete with 0. Numerical values ONLY.</t>
         </r>
       </text>
     </comment>
@@ -430,10 +362,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSc
-HZ    (2024-04-18 08:25:55)
-If no Carbon dioxide used complete with 0. Numerical values ONLY.</t>
+          <t>If no Carbon dioxide used complete with 0. Numerical values ONLY.</t>
         </r>
       </text>
     </comment>
@@ -446,10 +375,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_2k
-HZ    (2024-04-18 08:25:55)
-If no Hydrogen used complete with 0. Numerical values ONLY.</t>
+          <t>If no Hydrogen used complete with 0. Numerical values ONLY.</t>
         </r>
       </text>
     </comment>
@@ -462,10 +388,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSY
-HZ    (2024-04-18 08:25:55)
-If no Nitrogen used complete with 0. Numerical values ONLY.</t>
+          <t>If no Nitrogen used complete with 0. Numerical values ONLY.</t>
         </r>
       </text>
     </comment>
@@ -478,10 +401,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSs
-HZ    (2024-04-18 08:25:55)
-Indicated in cells per mL.</t>
+          <t>Indicated in cells per mL.</t>
         </r>
       </text>
     </comment>
@@ -494,10 +414,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_3g
-HZ    (2024-04-18 08:25:55)
-Indicated in mL.</t>
+          <t>Indicated in mL.</t>
         </r>
       </text>
     </comment>
@@ -510,10 +427,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_3o
-HZ    (2024-04-18 08:25:55)
-Complete with the initial pH.</t>
+          <t>Complete with the initial pH.</t>
         </r>
       </text>
     </comment>
@@ -526,10 +440,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_2o
-HZ    (2024-04-18 08:25:55)
-Initial temperature in Celsius.</t>
+          <t>Initial temperature in Celsius.</t>
         </r>
       </text>
     </comment>
@@ -542,10 +453,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSE
-HZ    (2024-04-18 08:25:55)
-Fill in with 1 if carbon sourced. 0 otherwise. DO NOT leave in blank.</t>
+          <t>Fill in with 1 if carbon sourced. 0 otherwise. DO NOT leave in blank.</t>
         </r>
       </text>
     </comment>
@@ -558,10 +466,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_3Y
-HZ    (2024-04-18 08:25:55)
-Name of the media used in the compartment. Adding spaces is allowed.</t>
+          <t>Name of the media used in the compartment. Adding spaces is allowed.</t>
         </r>
       </text>
     </comment>
@@ -574,10 +479,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_2w
-HZ    (2024-04-18 08:25:55)
-Provide the link of the media used if available.</t>
+          <t>Provide the link of the media used if available.</t>
         </r>
       </text>
     </comment>
@@ -601,8 +503,6 @@
             <charset val="1"/>
           </rPr>
           <t>======
-ID#AAABMGTgVTw
-HZ    (2024-04-18 08:25:55)
 Each Member_ID represent a different microbial sample. Please notice that these will be mapped in COMUNITIES sheet.</t>
         </r>
       </text>
@@ -616,10 +516,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVS0
-HZ    (2024-04-18 08:25:55)
-Complete with 1 if your Member_ID is defined, 0 otherwise. For example a non defined community could be soil or stool samples, where the specific strains are unknown.</t>
+          <t>Complete with 1 if your Member_ID is defined, 0 otherwise. For example a non defined community could be soil or stool samples, where the specific strains are unknown.</t>
         </r>
       </text>
     </comment>
@@ -633,8 +530,6 @@
             <charset val="1"/>
           </rPr>
           <t>======
-ID#AAABMGkR_2Y
-HZ    (2024-04-18 08:25:55)
 Give the exact strain name of your micobes. If it is an undefined comunity leave in BLANK.</t>
         </r>
       </text>
@@ -648,10 +543,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVT0
-HZ    (2024-04-18 08:25:55)
-Give the strain NCBI ID of your microbial strain. If it is an undefined comunity leave in BLANK.</t>
+          <t>Give the strain NCBI ID of your microbial strain. If it is an undefined comunity leave in BLANK.</t>
         </r>
       </text>
     </comment>
@@ -674,10 +566,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_28
-HZ    (2024-04-18 08:25:55)
-Specify each different community (set of Member_ID in COMUNITY_MEMBERS). Please notice that these IDs will be mapped in STUDY_DATA.</t>
+          <t>Specify each different community (set of Member_ID in COMUNITY_MEMBERS). Please notice that these IDs will be mapped in STUDY_DATA.</t>
         </r>
       </text>
     </comment>
@@ -690,10 +579,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVS8
-HZ    (2024-04-18 08:25:55)
-Use the same iD used in COMUNITY_MEMBERS. Multiple values allowed, separate them by a comma (,).</t>
+          <t>Use the same ID used in COMUNITY_MEMBERS. Multiple values allowed, separate them by a comma (,).</t>
         </r>
       </text>
     </comment>
@@ -793,10 +679,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSQ
-HZ    (2024-04-18 08:25:55)
-Complete with the NEW compartment ID (COMPARTMENTS sheet).</t>
+          <t>Complete with the NEW compartment ID (COMPARTMENTS sheet).</t>
         </r>
       </text>
     </comment>
@@ -809,10 +692,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSI
-HZ    (2024-04-18 08:25:55)
-Complete with the NEW comunity ID (COMUNITIES sheet).</t>
+          <t>Complete with the NEW comunity ID (COMUNITIES sheet).</t>
         </r>
       </text>
     </comment>
@@ -825,10 +705,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVTU
-HZ    (2024-04-18 08:25:55)
-Clear, concise and informative description of the perturbation.</t>
+          <t>Clear, concise and informative description of the perturbation.</t>
         </r>
       </text>
     </comment>
@@ -841,10 +718,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVSU
-HZ    (2024-04-18 08:25:55)
-If the new value is range of values. Complete with the minimum value.</t>
+          <t>If the new value is range of values. Complete with the minimum value.</t>
         </r>
       </text>
     </comment>
@@ -857,10 +731,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_3k
-HZ    (2024-04-18 08:25:55)
-If the new value is range of values. Complete with the maximum value.</t>
+          <t>If the new value is range of values. Complete with the maximum value.</t>
         </r>
       </text>
     </comment>
@@ -873,10 +744,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGkR_2s
-HZ    (2024-04-18 08:25:55)
-Time in the format HH:MM:SS. The time-point should match one of the tme-points specified in the data template</t>
+          <t>Time in the format HH:MM:SS. The time-point should match one of the tme-points specified in the data template</t>
         </r>
       </text>
     </comment>
@@ -889,10 +757,7 @@
             <rFont val="Calibri"/>
             <charset val="1"/>
           </rPr>
-          <t>======
-ID#AAABMGTgVTc
-HZ    (2024-04-18 08:25:55)
-Time in the format HH:MM:SS. The time-point should match one of the tme-points specified in the data template</t>
+          <t>Time in the format HH:MM:SS. The time-point should match one of the tme-points specified in the data template</t>
         </r>
       </text>
     </comment>
@@ -3454,9 +3319,6 @@
     <t>Biological_Replicates_Number</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Control_Description</t>
   </si>
   <si>
@@ -3470,13 +3332,16 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Control_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3565,6 +3430,13 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3649,7 +3521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3661,43 +3533,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3709,13 +3554,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3725,9 +3563,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3736,9 +3571,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3791,6 +3623,47 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4195,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -4210,795 +4083,795 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="15"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="34" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="36" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="5">
         <v>2</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="19"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="43"/>
+      <c r="B38" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="38" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="35" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="27" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="27" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="27" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="35" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="27" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="27" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="35" t="s">
+      <c r="A50" s="43"/>
+      <c r="B50" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="35" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="41" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="5">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="41" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="35" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="35" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="43"/>
+      <c r="B60" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="35" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="6" t="s">
         <v>140</v>
       </c>
       <c r="G61" t="s">
@@ -5006,3293 +4879,3293 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="44" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="6">
         <v>818</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="35" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="6">
         <v>226186</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="35" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E65" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
     </row>
     <row r="67" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="36" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="50" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="50" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="50" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="50" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="50" t="s">
+      <c r="A76" s="43"/>
+      <c r="B76" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="48" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="6">
         <v>30</v>
       </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="48" t="s">
+      <c r="A78" s="43"/>
+      <c r="B78" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E78" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="50" t="s">
+      <c r="A79" s="43"/>
+      <c r="B79" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C79" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E79" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="50" t="s">
+      <c r="A80" s="43"/>
+      <c r="B80" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C80" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="51"/>
-      <c r="D81" s="15"/>
+      <c r="B81" s="37"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="51"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="37"/>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="51"/>
-      <c r="D83" s="15"/>
+      <c r="B83" s="37"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="51"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="51"/>
-      <c r="D85" s="15"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="7"/>
     </row>
     <row r="86" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="51"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="7"/>
     </row>
     <row r="87" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="51"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="7"/>
     </row>
     <row r="88" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="51"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="51"/>
-      <c r="D89" s="15"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="51"/>
-      <c r="D90" s="15"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="51"/>
-      <c r="D91" s="15"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="92" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="51"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="7"/>
     </row>
     <row r="93" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="51"/>
-      <c r="D93" s="15"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="51"/>
-      <c r="D94" s="15"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="7"/>
     </row>
     <row r="95" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="51"/>
-      <c r="D95" s="15"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="51"/>
-      <c r="D96" s="15"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="7"/>
     </row>
     <row r="97" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="51"/>
-      <c r="D97" s="15"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="51"/>
-      <c r="D98" s="15"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="51"/>
-      <c r="D99" s="15"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="51"/>
-      <c r="D100" s="15"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="51"/>
-      <c r="D101" s="15"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="51"/>
-      <c r="D102" s="15"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="51"/>
-      <c r="D103" s="15"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="51"/>
-      <c r="D104" s="15"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="51"/>
-      <c r="D105" s="15"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="7"/>
     </row>
     <row r="106" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="51"/>
-      <c r="D106" s="15"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="51"/>
-      <c r="D107" s="15"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="51"/>
-      <c r="D108" s="15"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="7"/>
     </row>
     <row r="109" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="51"/>
-      <c r="D109" s="15"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="7"/>
     </row>
     <row r="110" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="51"/>
-      <c r="D110" s="15"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="7"/>
     </row>
     <row r="111" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="51"/>
-      <c r="D111" s="15"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="51"/>
-      <c r="D112" s="15"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="7"/>
     </row>
     <row r="113" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="51"/>
-      <c r="D113" s="15"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="7"/>
     </row>
     <row r="114" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="51"/>
-      <c r="D114" s="15"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="51"/>
-      <c r="D115" s="15"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="7"/>
     </row>
     <row r="116" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="51"/>
-      <c r="D116" s="15"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="51"/>
-      <c r="D117" s="15"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="7"/>
     </row>
     <row r="118" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="51"/>
-      <c r="D118" s="15"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="7"/>
     </row>
     <row r="119" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="51"/>
-      <c r="D119" s="15"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="7"/>
     </row>
     <row r="120" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="51"/>
-      <c r="D120" s="15"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="7"/>
     </row>
     <row r="121" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="51"/>
-      <c r="D121" s="15"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="7"/>
     </row>
     <row r="122" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="51"/>
-      <c r="D122" s="15"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="51"/>
-      <c r="D123" s="15"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="51"/>
-      <c r="D124" s="15"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="51"/>
-      <c r="D125" s="15"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="51"/>
-      <c r="D126" s="15"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="7"/>
     </row>
     <row r="127" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="51"/>
-      <c r="D127" s="15"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="7"/>
     </row>
     <row r="128" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="51"/>
-      <c r="D128" s="15"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="51"/>
-      <c r="D129" s="15"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="51"/>
-      <c r="D130" s="15"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="51"/>
-      <c r="D131" s="15"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="51"/>
-      <c r="D132" s="15"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="51"/>
-      <c r="D133" s="15"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="7"/>
     </row>
     <row r="134" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="51"/>
-      <c r="D134" s="15"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="7"/>
     </row>
     <row r="135" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="51"/>
-      <c r="D135" s="15"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="7"/>
     </row>
     <row r="136" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="51"/>
-      <c r="D136" s="15"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="7"/>
     </row>
     <row r="137" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="51"/>
-      <c r="D137" s="15"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="51"/>
-      <c r="D138" s="15"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="7"/>
     </row>
     <row r="139" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="51"/>
-      <c r="D139" s="15"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="7"/>
     </row>
     <row r="140" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="51"/>
-      <c r="D140" s="15"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="7"/>
     </row>
     <row r="141" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="51"/>
-      <c r="D141" s="15"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="7"/>
     </row>
     <row r="142" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="51"/>
-      <c r="D142" s="15"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="7"/>
     </row>
     <row r="143" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="51"/>
-      <c r="D143" s="15"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="51"/>
-      <c r="D144" s="15"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="7"/>
     </row>
     <row r="145" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="51"/>
-      <c r="D145" s="15"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="7"/>
     </row>
     <row r="146" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="51"/>
-      <c r="D146" s="15"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="7"/>
     </row>
     <row r="147" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="51"/>
-      <c r="D147" s="15"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="7"/>
     </row>
     <row r="148" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="51"/>
-      <c r="D148" s="15"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="7"/>
     </row>
     <row r="149" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="51"/>
-      <c r="D149" s="15"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="7"/>
     </row>
     <row r="150" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="51"/>
-      <c r="D150" s="15"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="7"/>
     </row>
     <row r="151" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="51"/>
-      <c r="D151" s="15"/>
+      <c r="C151" s="37"/>
+      <c r="D151" s="7"/>
     </row>
     <row r="152" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="51"/>
-      <c r="D152" s="15"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="7"/>
     </row>
     <row r="153" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="51"/>
-      <c r="D153" s="15"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="7"/>
     </row>
     <row r="154" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="51"/>
-      <c r="D154" s="15"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="7"/>
     </row>
     <row r="155" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="51"/>
-      <c r="D155" s="15"/>
+      <c r="C155" s="37"/>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="51"/>
-      <c r="D156" s="15"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="51"/>
-      <c r="D157" s="15"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="51"/>
-      <c r="D158" s="15"/>
+      <c r="C158" s="37"/>
+      <c r="D158" s="7"/>
     </row>
     <row r="159" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="51"/>
-      <c r="D159" s="15"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="51"/>
-      <c r="D160" s="15"/>
+      <c r="C160" s="37"/>
+      <c r="D160" s="7"/>
     </row>
     <row r="161" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="51"/>
-      <c r="D161" s="15"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="7"/>
     </row>
     <row r="162" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="51"/>
-      <c r="D162" s="15"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="7"/>
     </row>
     <row r="163" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="51"/>
-      <c r="D163" s="15"/>
+      <c r="C163" s="37"/>
+      <c r="D163" s="7"/>
     </row>
     <row r="164" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="51"/>
-      <c r="D164" s="15"/>
+      <c r="C164" s="37"/>
+      <c r="D164" s="7"/>
     </row>
     <row r="165" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="51"/>
-      <c r="D165" s="15"/>
+      <c r="C165" s="37"/>
+      <c r="D165" s="7"/>
     </row>
     <row r="166" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="51"/>
-      <c r="D166" s="15"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="7"/>
     </row>
     <row r="167" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="51"/>
-      <c r="D167" s="15"/>
+      <c r="C167" s="37"/>
+      <c r="D167" s="7"/>
     </row>
     <row r="168" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="51"/>
-      <c r="D168" s="15"/>
+      <c r="C168" s="37"/>
+      <c r="D168" s="7"/>
     </row>
     <row r="169" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="51"/>
-      <c r="D169" s="15"/>
+      <c r="C169" s="37"/>
+      <c r="D169" s="7"/>
     </row>
     <row r="170" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="51"/>
-      <c r="D170" s="15"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="7"/>
     </row>
     <row r="171" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="51"/>
-      <c r="D171" s="15"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="7"/>
     </row>
     <row r="172" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="51"/>
-      <c r="D172" s="15"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="7"/>
     </row>
     <row r="173" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="51"/>
-      <c r="D173" s="15"/>
+      <c r="C173" s="37"/>
+      <c r="D173" s="7"/>
     </row>
     <row r="174" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="51"/>
-      <c r="D174" s="15"/>
+      <c r="C174" s="37"/>
+      <c r="D174" s="7"/>
     </row>
     <row r="175" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="51"/>
-      <c r="D175" s="15"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="7"/>
     </row>
     <row r="176" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="51"/>
-      <c r="D176" s="15"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="7"/>
     </row>
     <row r="177" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="51"/>
-      <c r="D177" s="15"/>
+      <c r="C177" s="37"/>
+      <c r="D177" s="7"/>
     </row>
     <row r="178" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C178" s="51"/>
-      <c r="D178" s="15"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="7"/>
     </row>
     <row r="179" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="51"/>
-      <c r="D179" s="15"/>
+      <c r="C179" s="37"/>
+      <c r="D179" s="7"/>
     </row>
     <row r="180" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C180" s="51"/>
-      <c r="D180" s="15"/>
+      <c r="C180" s="37"/>
+      <c r="D180" s="7"/>
     </row>
     <row r="181" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="51"/>
-      <c r="D181" s="15"/>
+      <c r="C181" s="37"/>
+      <c r="D181" s="7"/>
     </row>
     <row r="182" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="51"/>
-      <c r="D182" s="15"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="7"/>
     </row>
     <row r="183" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="51"/>
-      <c r="D183" s="15"/>
+      <c r="C183" s="37"/>
+      <c r="D183" s="7"/>
     </row>
     <row r="184" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="51"/>
-      <c r="D184" s="15"/>
+      <c r="C184" s="37"/>
+      <c r="D184" s="7"/>
     </row>
     <row r="185" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C185" s="51"/>
-      <c r="D185" s="15"/>
+      <c r="C185" s="37"/>
+      <c r="D185" s="7"/>
     </row>
     <row r="186" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C186" s="51"/>
-      <c r="D186" s="15"/>
+      <c r="C186" s="37"/>
+      <c r="D186" s="7"/>
     </row>
     <row r="187" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C187" s="51"/>
-      <c r="D187" s="15"/>
+      <c r="C187" s="37"/>
+      <c r="D187" s="7"/>
     </row>
     <row r="188" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C188" s="51"/>
-      <c r="D188" s="15"/>
+      <c r="C188" s="37"/>
+      <c r="D188" s="7"/>
     </row>
     <row r="189" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C189" s="51"/>
-      <c r="D189" s="15"/>
+      <c r="C189" s="37"/>
+      <c r="D189" s="7"/>
     </row>
     <row r="190" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C190" s="51"/>
-      <c r="D190" s="15"/>
+      <c r="C190" s="37"/>
+      <c r="D190" s="7"/>
     </row>
     <row r="191" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C191" s="51"/>
-      <c r="D191" s="15"/>
+      <c r="C191" s="37"/>
+      <c r="D191" s="7"/>
     </row>
     <row r="192" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C192" s="51"/>
-      <c r="D192" s="15"/>
+      <c r="C192" s="37"/>
+      <c r="D192" s="7"/>
     </row>
     <row r="193" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="51"/>
-      <c r="D193" s="15"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="7"/>
     </row>
     <row r="194" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C194" s="51"/>
-      <c r="D194" s="15"/>
+      <c r="C194" s="37"/>
+      <c r="D194" s="7"/>
     </row>
     <row r="195" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C195" s="51"/>
-      <c r="D195" s="15"/>
+      <c r="C195" s="37"/>
+      <c r="D195" s="7"/>
     </row>
     <row r="196" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C196" s="51"/>
-      <c r="D196" s="15"/>
+      <c r="C196" s="37"/>
+      <c r="D196" s="7"/>
     </row>
     <row r="197" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C197" s="51"/>
-      <c r="D197" s="15"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="7"/>
     </row>
     <row r="198" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C198" s="51"/>
-      <c r="D198" s="15"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="7"/>
     </row>
     <row r="199" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="51"/>
-      <c r="D199" s="15"/>
+      <c r="C199" s="37"/>
+      <c r="D199" s="7"/>
     </row>
     <row r="200" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C200" s="51"/>
-      <c r="D200" s="15"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="7"/>
     </row>
     <row r="201" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C201" s="51"/>
-      <c r="D201" s="15"/>
+      <c r="C201" s="37"/>
+      <c r="D201" s="7"/>
     </row>
     <row r="202" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C202" s="51"/>
-      <c r="D202" s="15"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="7"/>
     </row>
     <row r="203" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C203" s="51"/>
-      <c r="D203" s="15"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="7"/>
     </row>
     <row r="204" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C204" s="51"/>
-      <c r="D204" s="15"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="7"/>
     </row>
     <row r="205" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C205" s="51"/>
-      <c r="D205" s="15"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="7"/>
     </row>
     <row r="206" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C206" s="51"/>
-      <c r="D206" s="15"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="7"/>
     </row>
     <row r="207" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C207" s="51"/>
-      <c r="D207" s="15"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="7"/>
     </row>
     <row r="208" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C208" s="51"/>
-      <c r="D208" s="15"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="7"/>
     </row>
     <row r="209" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="51"/>
-      <c r="D209" s="15"/>
+      <c r="C209" s="37"/>
+      <c r="D209" s="7"/>
     </row>
     <row r="210" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C210" s="51"/>
-      <c r="D210" s="15"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="7"/>
     </row>
     <row r="211" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C211" s="51"/>
-      <c r="D211" s="15"/>
+      <c r="C211" s="37"/>
+      <c r="D211" s="7"/>
     </row>
     <row r="212" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C212" s="51"/>
-      <c r="D212" s="15"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="7"/>
     </row>
     <row r="213" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C213" s="51"/>
-      <c r="D213" s="15"/>
+      <c r="C213" s="37"/>
+      <c r="D213" s="7"/>
     </row>
     <row r="214" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="51"/>
-      <c r="D214" s="15"/>
+      <c r="C214" s="37"/>
+      <c r="D214" s="7"/>
     </row>
     <row r="215" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C215" s="51"/>
-      <c r="D215" s="15"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="7"/>
     </row>
     <row r="216" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="51"/>
-      <c r="D216" s="15"/>
+      <c r="C216" s="37"/>
+      <c r="D216" s="7"/>
     </row>
     <row r="217" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C217" s="51"/>
-      <c r="D217" s="15"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="7"/>
     </row>
     <row r="218" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C218" s="51"/>
-      <c r="D218" s="15"/>
+      <c r="C218" s="37"/>
+      <c r="D218" s="7"/>
     </row>
     <row r="219" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C219" s="51"/>
-      <c r="D219" s="15"/>
+      <c r="C219" s="37"/>
+      <c r="D219" s="7"/>
     </row>
     <row r="220" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C220" s="51"/>
-      <c r="D220" s="15"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="7"/>
     </row>
     <row r="221" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C221" s="51"/>
-      <c r="D221" s="15"/>
+      <c r="C221" s="37"/>
+      <c r="D221" s="7"/>
     </row>
     <row r="222" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C222" s="51"/>
-      <c r="D222" s="15"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="7"/>
     </row>
     <row r="223" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C223" s="51"/>
-      <c r="D223" s="15"/>
+      <c r="C223" s="37"/>
+      <c r="D223" s="7"/>
     </row>
     <row r="224" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C224" s="51"/>
-      <c r="D224" s="15"/>
+      <c r="C224" s="37"/>
+      <c r="D224" s="7"/>
     </row>
     <row r="225" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C225" s="51"/>
-      <c r="D225" s="15"/>
+      <c r="C225" s="37"/>
+      <c r="D225" s="7"/>
     </row>
     <row r="226" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C226" s="51"/>
-      <c r="D226" s="15"/>
+      <c r="C226" s="37"/>
+      <c r="D226" s="7"/>
     </row>
     <row r="227" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C227" s="51"/>
-      <c r="D227" s="15"/>
+      <c r="C227" s="37"/>
+      <c r="D227" s="7"/>
     </row>
     <row r="228" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C228" s="51"/>
-      <c r="D228" s="15"/>
+      <c r="C228" s="37"/>
+      <c r="D228" s="7"/>
     </row>
     <row r="229" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C229" s="51"/>
-      <c r="D229" s="15"/>
+      <c r="C229" s="37"/>
+      <c r="D229" s="7"/>
     </row>
     <row r="230" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C230" s="51"/>
-      <c r="D230" s="15"/>
+      <c r="C230" s="37"/>
+      <c r="D230" s="7"/>
     </row>
     <row r="231" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C231" s="51"/>
-      <c r="D231" s="15"/>
+      <c r="C231" s="37"/>
+      <c r="D231" s="7"/>
     </row>
     <row r="232" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C232" s="51"/>
-      <c r="D232" s="15"/>
+      <c r="C232" s="37"/>
+      <c r="D232" s="7"/>
     </row>
     <row r="233" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C233" s="51"/>
-      <c r="D233" s="15"/>
+      <c r="C233" s="37"/>
+      <c r="D233" s="7"/>
     </row>
     <row r="234" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C234" s="51"/>
-      <c r="D234" s="15"/>
+      <c r="C234" s="37"/>
+      <c r="D234" s="7"/>
     </row>
     <row r="235" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C235" s="51"/>
-      <c r="D235" s="15"/>
+      <c r="C235" s="37"/>
+      <c r="D235" s="7"/>
     </row>
     <row r="236" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C236" s="51"/>
-      <c r="D236" s="15"/>
+      <c r="C236" s="37"/>
+      <c r="D236" s="7"/>
     </row>
     <row r="237" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C237" s="51"/>
-      <c r="D237" s="15"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="7"/>
     </row>
     <row r="238" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C238" s="51"/>
-      <c r="D238" s="15"/>
+      <c r="C238" s="37"/>
+      <c r="D238" s="7"/>
     </row>
     <row r="239" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C239" s="51"/>
-      <c r="D239" s="15"/>
+      <c r="C239" s="37"/>
+      <c r="D239" s="7"/>
     </row>
     <row r="240" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C240" s="51"/>
-      <c r="D240" s="15"/>
+      <c r="C240" s="37"/>
+      <c r="D240" s="7"/>
     </row>
     <row r="241" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C241" s="51"/>
-      <c r="D241" s="15"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="7"/>
     </row>
     <row r="242" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C242" s="51"/>
-      <c r="D242" s="15"/>
+      <c r="C242" s="37"/>
+      <c r="D242" s="7"/>
     </row>
     <row r="243" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C243" s="51"/>
-      <c r="D243" s="15"/>
+      <c r="C243" s="37"/>
+      <c r="D243" s="7"/>
     </row>
     <row r="244" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C244" s="51"/>
-      <c r="D244" s="15"/>
+      <c r="C244" s="37"/>
+      <c r="D244" s="7"/>
     </row>
     <row r="245" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C245" s="51"/>
-      <c r="D245" s="15"/>
+      <c r="C245" s="37"/>
+      <c r="D245" s="7"/>
     </row>
     <row r="246" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C246" s="51"/>
-      <c r="D246" s="15"/>
+      <c r="C246" s="37"/>
+      <c r="D246" s="7"/>
     </row>
     <row r="247" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C247" s="51"/>
-      <c r="D247" s="15"/>
+      <c r="C247" s="37"/>
+      <c r="D247" s="7"/>
     </row>
     <row r="248" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C248" s="51"/>
-      <c r="D248" s="15"/>
+      <c r="C248" s="37"/>
+      <c r="D248" s="7"/>
     </row>
     <row r="249" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C249" s="51"/>
-      <c r="D249" s="15"/>
+      <c r="C249" s="37"/>
+      <c r="D249" s="7"/>
     </row>
     <row r="250" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C250" s="51"/>
-      <c r="D250" s="15"/>
+      <c r="C250" s="37"/>
+      <c r="D250" s="7"/>
     </row>
     <row r="251" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C251" s="51"/>
-      <c r="D251" s="15"/>
+      <c r="C251" s="37"/>
+      <c r="D251" s="7"/>
     </row>
     <row r="252" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C252" s="51"/>
-      <c r="D252" s="15"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="7"/>
     </row>
     <row r="253" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C253" s="51"/>
-      <c r="D253" s="15"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="7"/>
     </row>
     <row r="254" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C254" s="51"/>
-      <c r="D254" s="15"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="7"/>
     </row>
     <row r="255" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C255" s="51"/>
-      <c r="D255" s="15"/>
+      <c r="C255" s="37"/>
+      <c r="D255" s="7"/>
     </row>
     <row r="256" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C256" s="51"/>
-      <c r="D256" s="15"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="7"/>
     </row>
     <row r="257" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C257" s="51"/>
-      <c r="D257" s="15"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="7"/>
     </row>
     <row r="258" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C258" s="51"/>
-      <c r="D258" s="15"/>
+      <c r="C258" s="37"/>
+      <c r="D258" s="7"/>
     </row>
     <row r="259" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C259" s="51"/>
-      <c r="D259" s="15"/>
+      <c r="C259" s="37"/>
+      <c r="D259" s="7"/>
     </row>
     <row r="260" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C260" s="51"/>
-      <c r="D260" s="15"/>
+      <c r="C260" s="37"/>
+      <c r="D260" s="7"/>
     </row>
     <row r="261" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C261" s="51"/>
-      <c r="D261" s="15"/>
+      <c r="C261" s="37"/>
+      <c r="D261" s="7"/>
     </row>
     <row r="262" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C262" s="51"/>
-      <c r="D262" s="15"/>
+      <c r="C262" s="37"/>
+      <c r="D262" s="7"/>
     </row>
     <row r="263" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C263" s="51"/>
-      <c r="D263" s="15"/>
+      <c r="C263" s="37"/>
+      <c r="D263" s="7"/>
     </row>
     <row r="264" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C264" s="51"/>
-      <c r="D264" s="15"/>
+      <c r="C264" s="37"/>
+      <c r="D264" s="7"/>
     </row>
     <row r="265" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C265" s="51"/>
-      <c r="D265" s="15"/>
+      <c r="C265" s="37"/>
+      <c r="D265" s="7"/>
     </row>
     <row r="266" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C266" s="51"/>
-      <c r="D266" s="15"/>
+      <c r="C266" s="37"/>
+      <c r="D266" s="7"/>
     </row>
     <row r="267" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C267" s="51"/>
-      <c r="D267" s="15"/>
+      <c r="C267" s="37"/>
+      <c r="D267" s="7"/>
     </row>
     <row r="268" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="51"/>
-      <c r="D268" s="15"/>
+      <c r="C268" s="37"/>
+      <c r="D268" s="7"/>
     </row>
     <row r="269" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C269" s="51"/>
-      <c r="D269" s="15"/>
+      <c r="C269" s="37"/>
+      <c r="D269" s="7"/>
     </row>
     <row r="270" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C270" s="51"/>
-      <c r="D270" s="15"/>
+      <c r="C270" s="37"/>
+      <c r="D270" s="7"/>
     </row>
     <row r="271" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C271" s="51"/>
-      <c r="D271" s="15"/>
+      <c r="C271" s="37"/>
+      <c r="D271" s="7"/>
     </row>
     <row r="272" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C272" s="51"/>
-      <c r="D272" s="15"/>
+      <c r="C272" s="37"/>
+      <c r="D272" s="7"/>
     </row>
     <row r="273" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C273" s="51"/>
-      <c r="D273" s="15"/>
+      <c r="C273" s="37"/>
+      <c r="D273" s="7"/>
     </row>
     <row r="274" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C274" s="51"/>
-      <c r="D274" s="15"/>
+      <c r="C274" s="37"/>
+      <c r="D274" s="7"/>
     </row>
     <row r="275" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C275" s="51"/>
-      <c r="D275" s="15"/>
+      <c r="C275" s="37"/>
+      <c r="D275" s="7"/>
     </row>
     <row r="276" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C276" s="51"/>
-      <c r="D276" s="15"/>
+      <c r="C276" s="37"/>
+      <c r="D276" s="7"/>
     </row>
     <row r="277" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C277" s="51"/>
-      <c r="D277" s="15"/>
+      <c r="C277" s="37"/>
+      <c r="D277" s="7"/>
     </row>
     <row r="278" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C278" s="51"/>
-      <c r="D278" s="15"/>
+      <c r="C278" s="37"/>
+      <c r="D278" s="7"/>
     </row>
     <row r="279" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C279" s="51"/>
-      <c r="D279" s="15"/>
+      <c r="C279" s="37"/>
+      <c r="D279" s="7"/>
     </row>
     <row r="280" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C280" s="51"/>
-      <c r="D280" s="15"/>
+      <c r="C280" s="37"/>
+      <c r="D280" s="7"/>
     </row>
     <row r="281" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="15"/>
+      <c r="D281" s="7"/>
     </row>
     <row r="282" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="15"/>
+      <c r="D282" s="7"/>
     </row>
     <row r="283" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="15"/>
+      <c r="D283" s="7"/>
     </row>
     <row r="284" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="15"/>
+      <c r="D284" s="7"/>
     </row>
     <row r="285" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="15"/>
+      <c r="D285" s="7"/>
     </row>
     <row r="286" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="15"/>
+      <c r="D286" s="7"/>
     </row>
     <row r="287" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="15"/>
+      <c r="D287" s="7"/>
     </row>
     <row r="288" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="15"/>
+      <c r="D288" s="7"/>
     </row>
     <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="15"/>
+      <c r="D289" s="7"/>
     </row>
     <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="15"/>
+      <c r="D290" s="7"/>
     </row>
     <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="15"/>
+      <c r="D291" s="7"/>
     </row>
     <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="15"/>
+      <c r="D292" s="7"/>
     </row>
     <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="15"/>
+      <c r="D293" s="7"/>
     </row>
     <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="15"/>
+      <c r="D294" s="7"/>
     </row>
     <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="15"/>
+      <c r="D295" s="7"/>
     </row>
     <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="15"/>
+      <c r="D296" s="7"/>
     </row>
     <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="15"/>
+      <c r="D297" s="7"/>
     </row>
     <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="15"/>
+      <c r="D298" s="7"/>
     </row>
     <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="15"/>
+      <c r="D299" s="7"/>
     </row>
     <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="15"/>
+      <c r="D300" s="7"/>
     </row>
     <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="15"/>
+      <c r="D301" s="7"/>
     </row>
     <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="15"/>
+      <c r="D302" s="7"/>
     </row>
     <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="15"/>
+      <c r="D303" s="7"/>
     </row>
     <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="15"/>
+      <c r="D304" s="7"/>
     </row>
     <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="15"/>
+      <c r="D305" s="7"/>
     </row>
     <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="15"/>
+      <c r="D306" s="7"/>
     </row>
     <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="15"/>
+      <c r="D307" s="7"/>
     </row>
     <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="15"/>
+      <c r="D308" s="7"/>
     </row>
     <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="15"/>
+      <c r="D309" s="7"/>
     </row>
     <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="15"/>
+      <c r="D310" s="7"/>
     </row>
     <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="15"/>
+      <c r="D311" s="7"/>
     </row>
     <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="15"/>
+      <c r="D312" s="7"/>
     </row>
     <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="15"/>
+      <c r="D313" s="7"/>
     </row>
     <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="15"/>
+      <c r="D314" s="7"/>
     </row>
     <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="15"/>
+      <c r="D315" s="7"/>
     </row>
     <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="15"/>
+      <c r="D316" s="7"/>
     </row>
     <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="15"/>
+      <c r="D317" s="7"/>
     </row>
     <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="15"/>
+      <c r="D318" s="7"/>
     </row>
     <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="15"/>
+      <c r="D319" s="7"/>
     </row>
     <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="15"/>
+      <c r="D320" s="7"/>
     </row>
     <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="15"/>
+      <c r="D321" s="7"/>
     </row>
     <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="15"/>
+      <c r="D322" s="7"/>
     </row>
     <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="15"/>
+      <c r="D323" s="7"/>
     </row>
     <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="15"/>
+      <c r="D324" s="7"/>
     </row>
     <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="15"/>
+      <c r="D325" s="7"/>
     </row>
     <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="15"/>
+      <c r="D326" s="7"/>
     </row>
     <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="15"/>
+      <c r="D327" s="7"/>
     </row>
     <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="15"/>
+      <c r="D328" s="7"/>
     </row>
     <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="15"/>
+      <c r="D329" s="7"/>
     </row>
     <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="15"/>
+      <c r="D330" s="7"/>
     </row>
     <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="15"/>
+      <c r="D331" s="7"/>
     </row>
     <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="15"/>
+      <c r="D332" s="7"/>
     </row>
     <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="15"/>
+      <c r="D333" s="7"/>
     </row>
     <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="15"/>
+      <c r="D334" s="7"/>
     </row>
     <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="15"/>
+      <c r="D335" s="7"/>
     </row>
     <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="15"/>
+      <c r="D336" s="7"/>
     </row>
     <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D337" s="15"/>
+      <c r="D337" s="7"/>
     </row>
     <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D338" s="15"/>
+      <c r="D338" s="7"/>
     </row>
     <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D339" s="15"/>
+      <c r="D339" s="7"/>
     </row>
     <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D340" s="15"/>
+      <c r="D340" s="7"/>
     </row>
     <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D341" s="15"/>
+      <c r="D341" s="7"/>
     </row>
     <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D342" s="15"/>
+      <c r="D342" s="7"/>
     </row>
     <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D343" s="15"/>
+      <c r="D343" s="7"/>
     </row>
     <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D344" s="15"/>
+      <c r="D344" s="7"/>
     </row>
     <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D345" s="15"/>
+      <c r="D345" s="7"/>
     </row>
     <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D346" s="15"/>
+      <c r="D346" s="7"/>
     </row>
     <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D347" s="15"/>
+      <c r="D347" s="7"/>
     </row>
     <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D348" s="15"/>
+      <c r="D348" s="7"/>
     </row>
     <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D349" s="15"/>
+      <c r="D349" s="7"/>
     </row>
     <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D350" s="15"/>
+      <c r="D350" s="7"/>
     </row>
     <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D351" s="15"/>
+      <c r="D351" s="7"/>
     </row>
     <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D352" s="15"/>
+      <c r="D352" s="7"/>
     </row>
     <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D353" s="15"/>
+      <c r="D353" s="7"/>
     </row>
     <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D354" s="15"/>
+      <c r="D354" s="7"/>
     </row>
     <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D355" s="15"/>
+      <c r="D355" s="7"/>
     </row>
     <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D356" s="15"/>
+      <c r="D356" s="7"/>
     </row>
     <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D357" s="15"/>
+      <c r="D357" s="7"/>
     </row>
     <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D358" s="15"/>
+      <c r="D358" s="7"/>
     </row>
     <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D359" s="15"/>
+      <c r="D359" s="7"/>
     </row>
     <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D360" s="15"/>
+      <c r="D360" s="7"/>
     </row>
     <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D361" s="15"/>
+      <c r="D361" s="7"/>
     </row>
     <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D362" s="15"/>
+      <c r="D362" s="7"/>
     </row>
     <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D363" s="15"/>
+      <c r="D363" s="7"/>
     </row>
     <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D364" s="15"/>
+      <c r="D364" s="7"/>
     </row>
     <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D365" s="15"/>
+      <c r="D365" s="7"/>
     </row>
     <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D366" s="15"/>
+      <c r="D366" s="7"/>
     </row>
     <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D367" s="15"/>
+      <c r="D367" s="7"/>
     </row>
     <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D368" s="15"/>
+      <c r="D368" s="7"/>
     </row>
     <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D369" s="15"/>
+      <c r="D369" s="7"/>
     </row>
     <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D370" s="15"/>
+      <c r="D370" s="7"/>
     </row>
     <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D371" s="15"/>
+      <c r="D371" s="7"/>
     </row>
     <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D372" s="15"/>
+      <c r="D372" s="7"/>
     </row>
     <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D373" s="15"/>
+      <c r="D373" s="7"/>
     </row>
     <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D374" s="15"/>
+      <c r="D374" s="7"/>
     </row>
     <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D375" s="15"/>
+      <c r="D375" s="7"/>
     </row>
     <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D376" s="15"/>
+      <c r="D376" s="7"/>
     </row>
     <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D377" s="15"/>
+      <c r="D377" s="7"/>
     </row>
     <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D378" s="15"/>
+      <c r="D378" s="7"/>
     </row>
     <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D379" s="15"/>
+      <c r="D379" s="7"/>
     </row>
     <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D380" s="15"/>
+      <c r="D380" s="7"/>
     </row>
     <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D381" s="15"/>
+      <c r="D381" s="7"/>
     </row>
     <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D382" s="15"/>
+      <c r="D382" s="7"/>
     </row>
     <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D383" s="15"/>
+      <c r="D383" s="7"/>
     </row>
     <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D384" s="15"/>
+      <c r="D384" s="7"/>
     </row>
     <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D385" s="15"/>
+      <c r="D385" s="7"/>
     </row>
     <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D386" s="15"/>
+      <c r="D386" s="7"/>
     </row>
     <row r="387" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D387" s="15"/>
+      <c r="D387" s="7"/>
     </row>
     <row r="388" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D388" s="15"/>
+      <c r="D388" s="7"/>
     </row>
     <row r="389" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D389" s="15"/>
+      <c r="D389" s="7"/>
     </row>
     <row r="390" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D390" s="15"/>
+      <c r="D390" s="7"/>
     </row>
     <row r="391" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D391" s="15"/>
+      <c r="D391" s="7"/>
     </row>
     <row r="392" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D392" s="15"/>
+      <c r="D392" s="7"/>
     </row>
     <row r="393" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D393" s="15"/>
+      <c r="D393" s="7"/>
     </row>
     <row r="394" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D394" s="15"/>
+      <c r="D394" s="7"/>
     </row>
     <row r="395" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D395" s="15"/>
+      <c r="D395" s="7"/>
     </row>
     <row r="396" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D396" s="15"/>
+      <c r="D396" s="7"/>
     </row>
     <row r="397" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D397" s="15"/>
+      <c r="D397" s="7"/>
     </row>
     <row r="398" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D398" s="15"/>
+      <c r="D398" s="7"/>
     </row>
     <row r="399" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D399" s="15"/>
+      <c r="D399" s="7"/>
     </row>
     <row r="400" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D400" s="15"/>
+      <c r="D400" s="7"/>
     </row>
     <row r="401" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D401" s="15"/>
+      <c r="D401" s="7"/>
     </row>
     <row r="402" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D402" s="15"/>
+      <c r="D402" s="7"/>
     </row>
     <row r="403" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D403" s="15"/>
+      <c r="D403" s="7"/>
     </row>
     <row r="404" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D404" s="15"/>
+      <c r="D404" s="7"/>
     </row>
     <row r="405" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D405" s="15"/>
+      <c r="D405" s="7"/>
     </row>
     <row r="406" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D406" s="15"/>
+      <c r="D406" s="7"/>
     </row>
     <row r="407" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D407" s="15"/>
+      <c r="D407" s="7"/>
     </row>
     <row r="408" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D408" s="15"/>
+      <c r="D408" s="7"/>
     </row>
     <row r="409" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D409" s="15"/>
+      <c r="D409" s="7"/>
     </row>
     <row r="410" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D410" s="15"/>
+      <c r="D410" s="7"/>
     </row>
     <row r="411" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D411" s="15"/>
+      <c r="D411" s="7"/>
     </row>
     <row r="412" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D412" s="15"/>
+      <c r="D412" s="7"/>
     </row>
     <row r="413" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D413" s="15"/>
+      <c r="D413" s="7"/>
     </row>
     <row r="414" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D414" s="15"/>
+      <c r="D414" s="7"/>
     </row>
     <row r="415" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D415" s="15"/>
+      <c r="D415" s="7"/>
     </row>
     <row r="416" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D416" s="15"/>
+      <c r="D416" s="7"/>
     </row>
     <row r="417" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D417" s="15"/>
+      <c r="D417" s="7"/>
     </row>
     <row r="418" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D418" s="15"/>
+      <c r="D418" s="7"/>
     </row>
     <row r="419" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D419" s="15"/>
+      <c r="D419" s="7"/>
     </row>
     <row r="420" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D420" s="15"/>
+      <c r="D420" s="7"/>
     </row>
     <row r="421" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D421" s="15"/>
+      <c r="D421" s="7"/>
     </row>
     <row r="422" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D422" s="15"/>
+      <c r="D422" s="7"/>
     </row>
     <row r="423" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D423" s="15"/>
+      <c r="D423" s="7"/>
     </row>
     <row r="424" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D424" s="15"/>
+      <c r="D424" s="7"/>
     </row>
     <row r="425" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D425" s="15"/>
+      <c r="D425" s="7"/>
     </row>
     <row r="426" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D426" s="15"/>
+      <c r="D426" s="7"/>
     </row>
     <row r="427" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D427" s="15"/>
+      <c r="D427" s="7"/>
     </row>
     <row r="428" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D428" s="15"/>
+      <c r="D428" s="7"/>
     </row>
     <row r="429" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D429" s="15"/>
+      <c r="D429" s="7"/>
     </row>
     <row r="430" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D430" s="15"/>
+      <c r="D430" s="7"/>
     </row>
     <row r="431" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D431" s="15"/>
+      <c r="D431" s="7"/>
     </row>
     <row r="432" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D432" s="15"/>
+      <c r="D432" s="7"/>
     </row>
     <row r="433" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D433" s="15"/>
+      <c r="D433" s="7"/>
     </row>
     <row r="434" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D434" s="15"/>
+      <c r="D434" s="7"/>
     </row>
     <row r="435" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D435" s="15"/>
+      <c r="D435" s="7"/>
     </row>
     <row r="436" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D436" s="15"/>
+      <c r="D436" s="7"/>
     </row>
     <row r="437" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D437" s="15"/>
+      <c r="D437" s="7"/>
     </row>
     <row r="438" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D438" s="15"/>
+      <c r="D438" s="7"/>
     </row>
     <row r="439" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D439" s="15"/>
+      <c r="D439" s="7"/>
     </row>
     <row r="440" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D440" s="15"/>
+      <c r="D440" s="7"/>
     </row>
     <row r="441" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D441" s="15"/>
+      <c r="D441" s="7"/>
     </row>
     <row r="442" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D442" s="15"/>
+      <c r="D442" s="7"/>
     </row>
     <row r="443" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D443" s="15"/>
+      <c r="D443" s="7"/>
     </row>
     <row r="444" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D444" s="15"/>
+      <c r="D444" s="7"/>
     </row>
     <row r="445" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D445" s="15"/>
+      <c r="D445" s="7"/>
     </row>
     <row r="446" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D446" s="15"/>
+      <c r="D446" s="7"/>
     </row>
     <row r="447" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D447" s="15"/>
+      <c r="D447" s="7"/>
     </row>
     <row r="448" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D448" s="15"/>
+      <c r="D448" s="7"/>
     </row>
     <row r="449" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D449" s="15"/>
+      <c r="D449" s="7"/>
     </row>
     <row r="450" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D450" s="15"/>
+      <c r="D450" s="7"/>
     </row>
     <row r="451" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D451" s="15"/>
+      <c r="D451" s="7"/>
     </row>
     <row r="452" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D452" s="15"/>
+      <c r="D452" s="7"/>
     </row>
     <row r="453" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D453" s="15"/>
+      <c r="D453" s="7"/>
     </row>
     <row r="454" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D454" s="15"/>
+      <c r="D454" s="7"/>
     </row>
     <row r="455" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D455" s="15"/>
+      <c r="D455" s="7"/>
     </row>
     <row r="456" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D456" s="15"/>
+      <c r="D456" s="7"/>
     </row>
     <row r="457" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D457" s="15"/>
+      <c r="D457" s="7"/>
     </row>
     <row r="458" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D458" s="15"/>
+      <c r="D458" s="7"/>
     </row>
     <row r="459" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D459" s="15"/>
+      <c r="D459" s="7"/>
     </row>
     <row r="460" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D460" s="15"/>
+      <c r="D460" s="7"/>
     </row>
     <row r="461" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D461" s="15"/>
+      <c r="D461" s="7"/>
     </row>
     <row r="462" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D462" s="15"/>
+      <c r="D462" s="7"/>
     </row>
     <row r="463" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D463" s="15"/>
+      <c r="D463" s="7"/>
     </row>
     <row r="464" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D464" s="15"/>
+      <c r="D464" s="7"/>
     </row>
     <row r="465" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D465" s="15"/>
+      <c r="D465" s="7"/>
     </row>
     <row r="466" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D466" s="15"/>
+      <c r="D466" s="7"/>
     </row>
     <row r="467" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D467" s="15"/>
+      <c r="D467" s="7"/>
     </row>
     <row r="468" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D468" s="15"/>
+      <c r="D468" s="7"/>
     </row>
     <row r="469" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D469" s="15"/>
+      <c r="D469" s="7"/>
     </row>
     <row r="470" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D470" s="15"/>
+      <c r="D470" s="7"/>
     </row>
     <row r="471" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D471" s="15"/>
+      <c r="D471" s="7"/>
     </row>
     <row r="472" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D472" s="15"/>
+      <c r="D472" s="7"/>
     </row>
     <row r="473" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D473" s="15"/>
+      <c r="D473" s="7"/>
     </row>
     <row r="474" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D474" s="15"/>
+      <c r="D474" s="7"/>
     </row>
     <row r="475" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D475" s="15"/>
+      <c r="D475" s="7"/>
     </row>
     <row r="476" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D476" s="15"/>
+      <c r="D476" s="7"/>
     </row>
     <row r="477" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D477" s="15"/>
+      <c r="D477" s="7"/>
     </row>
     <row r="478" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D478" s="15"/>
+      <c r="D478" s="7"/>
     </row>
     <row r="479" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D479" s="15"/>
+      <c r="D479" s="7"/>
     </row>
     <row r="480" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D480" s="15"/>
+      <c r="D480" s="7"/>
     </row>
     <row r="481" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D481" s="15"/>
+      <c r="D481" s="7"/>
     </row>
     <row r="482" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D482" s="15"/>
+      <c r="D482" s="7"/>
     </row>
     <row r="483" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D483" s="15"/>
+      <c r="D483" s="7"/>
     </row>
     <row r="484" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D484" s="15"/>
+      <c r="D484" s="7"/>
     </row>
     <row r="485" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D485" s="15"/>
+      <c r="D485" s="7"/>
     </row>
     <row r="486" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D486" s="15"/>
+      <c r="D486" s="7"/>
     </row>
     <row r="487" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D487" s="15"/>
+      <c r="D487" s="7"/>
     </row>
     <row r="488" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D488" s="15"/>
+      <c r="D488" s="7"/>
     </row>
     <row r="489" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D489" s="15"/>
+      <c r="D489" s="7"/>
     </row>
     <row r="490" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D490" s="15"/>
+      <c r="D490" s="7"/>
     </row>
     <row r="491" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D491" s="15"/>
+      <c r="D491" s="7"/>
     </row>
     <row r="492" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D492" s="15"/>
+      <c r="D492" s="7"/>
     </row>
     <row r="493" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D493" s="15"/>
+      <c r="D493" s="7"/>
     </row>
     <row r="494" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D494" s="15"/>
+      <c r="D494" s="7"/>
     </row>
     <row r="495" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D495" s="15"/>
+      <c r="D495" s="7"/>
     </row>
     <row r="496" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D496" s="15"/>
+      <c r="D496" s="7"/>
     </row>
     <row r="497" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D497" s="15"/>
+      <c r="D497" s="7"/>
     </row>
     <row r="498" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D498" s="15"/>
+      <c r="D498" s="7"/>
     </row>
     <row r="499" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D499" s="15"/>
+      <c r="D499" s="7"/>
     </row>
     <row r="500" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D500" s="15"/>
+      <c r="D500" s="7"/>
     </row>
     <row r="501" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D501" s="15"/>
+      <c r="D501" s="7"/>
     </row>
     <row r="502" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D502" s="15"/>
+      <c r="D502" s="7"/>
     </row>
     <row r="503" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D503" s="15"/>
+      <c r="D503" s="7"/>
     </row>
     <row r="504" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D504" s="15"/>
+      <c r="D504" s="7"/>
     </row>
     <row r="505" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D505" s="15"/>
+      <c r="D505" s="7"/>
     </row>
     <row r="506" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D506" s="15"/>
+      <c r="D506" s="7"/>
     </row>
     <row r="507" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D507" s="15"/>
+      <c r="D507" s="7"/>
     </row>
     <row r="508" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D508" s="15"/>
+      <c r="D508" s="7"/>
     </row>
     <row r="509" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D509" s="15"/>
+      <c r="D509" s="7"/>
     </row>
     <row r="510" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D510" s="15"/>
+      <c r="D510" s="7"/>
     </row>
     <row r="511" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D511" s="15"/>
+      <c r="D511" s="7"/>
     </row>
     <row r="512" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D512" s="15"/>
+      <c r="D512" s="7"/>
     </row>
     <row r="513" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D513" s="15"/>
+      <c r="D513" s="7"/>
     </row>
     <row r="514" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D514" s="15"/>
+      <c r="D514" s="7"/>
     </row>
     <row r="515" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D515" s="15"/>
+      <c r="D515" s="7"/>
     </row>
     <row r="516" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D516" s="15"/>
+      <c r="D516" s="7"/>
     </row>
     <row r="517" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D517" s="15"/>
+      <c r="D517" s="7"/>
     </row>
     <row r="518" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D518" s="15"/>
+      <c r="D518" s="7"/>
     </row>
     <row r="519" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D519" s="15"/>
+      <c r="D519" s="7"/>
     </row>
     <row r="520" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D520" s="15"/>
+      <c r="D520" s="7"/>
     </row>
     <row r="521" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D521" s="15"/>
+      <c r="D521" s="7"/>
     </row>
     <row r="522" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D522" s="15"/>
+      <c r="D522" s="7"/>
     </row>
     <row r="523" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D523" s="15"/>
+      <c r="D523" s="7"/>
     </row>
     <row r="524" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D524" s="15"/>
+      <c r="D524" s="7"/>
     </row>
     <row r="525" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D525" s="15"/>
+      <c r="D525" s="7"/>
     </row>
     <row r="526" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D526" s="15"/>
+      <c r="D526" s="7"/>
     </row>
     <row r="527" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D527" s="15"/>
+      <c r="D527" s="7"/>
     </row>
     <row r="528" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D528" s="15"/>
+      <c r="D528" s="7"/>
     </row>
     <row r="529" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D529" s="15"/>
+      <c r="D529" s="7"/>
     </row>
     <row r="530" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D530" s="15"/>
+      <c r="D530" s="7"/>
     </row>
     <row r="531" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D531" s="15"/>
+      <c r="D531" s="7"/>
     </row>
     <row r="532" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D532" s="15"/>
+      <c r="D532" s="7"/>
     </row>
     <row r="533" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D533" s="15"/>
+      <c r="D533" s="7"/>
     </row>
     <row r="534" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D534" s="15"/>
+      <c r="D534" s="7"/>
     </row>
     <row r="535" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D535" s="15"/>
+      <c r="D535" s="7"/>
     </row>
     <row r="536" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D536" s="15"/>
+      <c r="D536" s="7"/>
     </row>
     <row r="537" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D537" s="15"/>
+      <c r="D537" s="7"/>
     </row>
     <row r="538" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D538" s="15"/>
+      <c r="D538" s="7"/>
     </row>
     <row r="539" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D539" s="15"/>
+      <c r="D539" s="7"/>
     </row>
     <row r="540" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D540" s="15"/>
+      <c r="D540" s="7"/>
     </row>
     <row r="541" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D541" s="15"/>
+      <c r="D541" s="7"/>
     </row>
     <row r="542" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D542" s="15"/>
+      <c r="D542" s="7"/>
     </row>
     <row r="543" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D543" s="15"/>
+      <c r="D543" s="7"/>
     </row>
     <row r="544" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D544" s="15"/>
+      <c r="D544" s="7"/>
     </row>
     <row r="545" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D545" s="15"/>
+      <c r="D545" s="7"/>
     </row>
     <row r="546" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D546" s="15"/>
+      <c r="D546" s="7"/>
     </row>
     <row r="547" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D547" s="15"/>
+      <c r="D547" s="7"/>
     </row>
     <row r="548" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D548" s="15"/>
+      <c r="D548" s="7"/>
     </row>
     <row r="549" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D549" s="15"/>
+      <c r="D549" s="7"/>
     </row>
     <row r="550" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D550" s="15"/>
+      <c r="D550" s="7"/>
     </row>
     <row r="551" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D551" s="15"/>
+      <c r="D551" s="7"/>
     </row>
     <row r="552" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D552" s="15"/>
+      <c r="D552" s="7"/>
     </row>
     <row r="553" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D553" s="15"/>
+      <c r="D553" s="7"/>
     </row>
     <row r="554" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D554" s="15"/>
+      <c r="D554" s="7"/>
     </row>
     <row r="555" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D555" s="15"/>
+      <c r="D555" s="7"/>
     </row>
     <row r="556" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D556" s="15"/>
+      <c r="D556" s="7"/>
     </row>
     <row r="557" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D557" s="15"/>
+      <c r="D557" s="7"/>
     </row>
     <row r="558" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D558" s="15"/>
+      <c r="D558" s="7"/>
     </row>
     <row r="559" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D559" s="15"/>
+      <c r="D559" s="7"/>
     </row>
     <row r="560" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D560" s="15"/>
+      <c r="D560" s="7"/>
     </row>
     <row r="561" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D561" s="15"/>
+      <c r="D561" s="7"/>
     </row>
     <row r="562" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D562" s="15"/>
+      <c r="D562" s="7"/>
     </row>
     <row r="563" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D563" s="15"/>
+      <c r="D563" s="7"/>
     </row>
     <row r="564" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D564" s="15"/>
+      <c r="D564" s="7"/>
     </row>
     <row r="565" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D565" s="15"/>
+      <c r="D565" s="7"/>
     </row>
     <row r="566" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D566" s="15"/>
+      <c r="D566" s="7"/>
     </row>
     <row r="567" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D567" s="15"/>
+      <c r="D567" s="7"/>
     </row>
     <row r="568" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D568" s="15"/>
+      <c r="D568" s="7"/>
     </row>
     <row r="569" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D569" s="15"/>
+      <c r="D569" s="7"/>
     </row>
     <row r="570" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D570" s="15"/>
+      <c r="D570" s="7"/>
     </row>
     <row r="571" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D571" s="15"/>
+      <c r="D571" s="7"/>
     </row>
     <row r="572" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D572" s="15"/>
+      <c r="D572" s="7"/>
     </row>
     <row r="573" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D573" s="15"/>
+      <c r="D573" s="7"/>
     </row>
     <row r="574" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D574" s="15"/>
+      <c r="D574" s="7"/>
     </row>
     <row r="575" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D575" s="15"/>
+      <c r="D575" s="7"/>
     </row>
     <row r="576" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D576" s="15"/>
+      <c r="D576" s="7"/>
     </row>
     <row r="577" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D577" s="15"/>
+      <c r="D577" s="7"/>
     </row>
     <row r="578" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D578" s="15"/>
+      <c r="D578" s="7"/>
     </row>
     <row r="579" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D579" s="15"/>
+      <c r="D579" s="7"/>
     </row>
     <row r="580" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D580" s="15"/>
+      <c r="D580" s="7"/>
     </row>
     <row r="581" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D581" s="15"/>
+      <c r="D581" s="7"/>
     </row>
     <row r="582" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D582" s="15"/>
+      <c r="D582" s="7"/>
     </row>
     <row r="583" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D583" s="15"/>
+      <c r="D583" s="7"/>
     </row>
     <row r="584" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D584" s="15"/>
+      <c r="D584" s="7"/>
     </row>
     <row r="585" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D585" s="15"/>
+      <c r="D585" s="7"/>
     </row>
     <row r="586" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D586" s="15"/>
+      <c r="D586" s="7"/>
     </row>
     <row r="587" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D587" s="15"/>
+      <c r="D587" s="7"/>
     </row>
     <row r="588" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D588" s="15"/>
+      <c r="D588" s="7"/>
     </row>
     <row r="589" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D589" s="15"/>
+      <c r="D589" s="7"/>
     </row>
     <row r="590" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D590" s="15"/>
+      <c r="D590" s="7"/>
     </row>
     <row r="591" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D591" s="15"/>
+      <c r="D591" s="7"/>
     </row>
     <row r="592" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D592" s="15"/>
+      <c r="D592" s="7"/>
     </row>
     <row r="593" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D593" s="15"/>
+      <c r="D593" s="7"/>
     </row>
     <row r="594" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D594" s="15"/>
+      <c r="D594" s="7"/>
     </row>
     <row r="595" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D595" s="15"/>
+      <c r="D595" s="7"/>
     </row>
     <row r="596" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D596" s="15"/>
+      <c r="D596" s="7"/>
     </row>
     <row r="597" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D597" s="15"/>
+      <c r="D597" s="7"/>
     </row>
     <row r="598" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D598" s="15"/>
+      <c r="D598" s="7"/>
     </row>
     <row r="599" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D599" s="15"/>
+      <c r="D599" s="7"/>
     </row>
     <row r="600" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D600" s="15"/>
+      <c r="D600" s="7"/>
     </row>
     <row r="601" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D601" s="15"/>
+      <c r="D601" s="7"/>
     </row>
     <row r="602" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D602" s="15"/>
+      <c r="D602" s="7"/>
     </row>
     <row r="603" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D603" s="15"/>
+      <c r="D603" s="7"/>
     </row>
     <row r="604" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D604" s="15"/>
+      <c r="D604" s="7"/>
     </row>
     <row r="605" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D605" s="15"/>
+      <c r="D605" s="7"/>
     </row>
     <row r="606" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D606" s="15"/>
+      <c r="D606" s="7"/>
     </row>
     <row r="607" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D607" s="15"/>
+      <c r="D607" s="7"/>
     </row>
     <row r="608" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D608" s="15"/>
+      <c r="D608" s="7"/>
     </row>
     <row r="609" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D609" s="15"/>
+      <c r="D609" s="7"/>
     </row>
     <row r="610" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D610" s="15"/>
+      <c r="D610" s="7"/>
     </row>
     <row r="611" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D611" s="15"/>
+      <c r="D611" s="7"/>
     </row>
     <row r="612" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D612" s="15"/>
+      <c r="D612" s="7"/>
     </row>
     <row r="613" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D613" s="15"/>
+      <c r="D613" s="7"/>
     </row>
     <row r="614" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D614" s="15"/>
+      <c r="D614" s="7"/>
     </row>
     <row r="615" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D615" s="15"/>
+      <c r="D615" s="7"/>
     </row>
     <row r="616" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D616" s="15"/>
+      <c r="D616" s="7"/>
     </row>
     <row r="617" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D617" s="15"/>
+      <c r="D617" s="7"/>
     </row>
     <row r="618" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D618" s="15"/>
+      <c r="D618" s="7"/>
     </row>
     <row r="619" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D619" s="15"/>
+      <c r="D619" s="7"/>
     </row>
     <row r="620" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D620" s="15"/>
+      <c r="D620" s="7"/>
     </row>
     <row r="621" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D621" s="15"/>
+      <c r="D621" s="7"/>
     </row>
     <row r="622" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D622" s="15"/>
+      <c r="D622" s="7"/>
     </row>
     <row r="623" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D623" s="15"/>
+      <c r="D623" s="7"/>
     </row>
     <row r="624" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D624" s="15"/>
+      <c r="D624" s="7"/>
     </row>
     <row r="625" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D625" s="15"/>
+      <c r="D625" s="7"/>
     </row>
     <row r="626" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D626" s="15"/>
+      <c r="D626" s="7"/>
     </row>
     <row r="627" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D627" s="15"/>
+      <c r="D627" s="7"/>
     </row>
     <row r="628" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D628" s="15"/>
+      <c r="D628" s="7"/>
     </row>
     <row r="629" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D629" s="15"/>
+      <c r="D629" s="7"/>
     </row>
     <row r="630" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D630" s="15"/>
+      <c r="D630" s="7"/>
     </row>
     <row r="631" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D631" s="15"/>
+      <c r="D631" s="7"/>
     </row>
     <row r="632" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D632" s="15"/>
+      <c r="D632" s="7"/>
     </row>
     <row r="633" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D633" s="15"/>
+      <c r="D633" s="7"/>
     </row>
     <row r="634" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D634" s="15"/>
+      <c r="D634" s="7"/>
     </row>
     <row r="635" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D635" s="15"/>
+      <c r="D635" s="7"/>
     </row>
     <row r="636" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D636" s="15"/>
+      <c r="D636" s="7"/>
     </row>
     <row r="637" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D637" s="15"/>
+      <c r="D637" s="7"/>
     </row>
     <row r="638" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D638" s="15"/>
+      <c r="D638" s="7"/>
     </row>
     <row r="639" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D639" s="15"/>
+      <c r="D639" s="7"/>
     </row>
     <row r="640" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D640" s="15"/>
+      <c r="D640" s="7"/>
     </row>
     <row r="641" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D641" s="15"/>
+      <c r="D641" s="7"/>
     </row>
     <row r="642" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D642" s="15"/>
+      <c r="D642" s="7"/>
     </row>
     <row r="643" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D643" s="15"/>
+      <c r="D643" s="7"/>
     </row>
     <row r="644" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D644" s="15"/>
+      <c r="D644" s="7"/>
     </row>
     <row r="645" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D645" s="15"/>
+      <c r="D645" s="7"/>
     </row>
     <row r="646" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D646" s="15"/>
+      <c r="D646" s="7"/>
     </row>
     <row r="647" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D647" s="15"/>
+      <c r="D647" s="7"/>
     </row>
     <row r="648" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D648" s="15"/>
+      <c r="D648" s="7"/>
     </row>
     <row r="649" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D649" s="15"/>
+      <c r="D649" s="7"/>
     </row>
     <row r="650" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D650" s="15"/>
+      <c r="D650" s="7"/>
     </row>
     <row r="651" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D651" s="15"/>
+      <c r="D651" s="7"/>
     </row>
     <row r="652" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D652" s="15"/>
+      <c r="D652" s="7"/>
     </row>
     <row r="653" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D653" s="15"/>
+      <c r="D653" s="7"/>
     </row>
     <row r="654" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D654" s="15"/>
+      <c r="D654" s="7"/>
     </row>
     <row r="655" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D655" s="15"/>
+      <c r="D655" s="7"/>
     </row>
     <row r="656" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D656" s="15"/>
+      <c r="D656" s="7"/>
     </row>
     <row r="657" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D657" s="15"/>
+      <c r="D657" s="7"/>
     </row>
     <row r="658" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D658" s="15"/>
+      <c r="D658" s="7"/>
     </row>
     <row r="659" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D659" s="15"/>
+      <c r="D659" s="7"/>
     </row>
     <row r="660" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D660" s="15"/>
+      <c r="D660" s="7"/>
     </row>
     <row r="661" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D661" s="15"/>
+      <c r="D661" s="7"/>
     </row>
     <row r="662" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D662" s="15"/>
+      <c r="D662" s="7"/>
     </row>
     <row r="663" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D663" s="15"/>
+      <c r="D663" s="7"/>
     </row>
     <row r="664" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D664" s="15"/>
+      <c r="D664" s="7"/>
     </row>
     <row r="665" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D665" s="15"/>
+      <c r="D665" s="7"/>
     </row>
     <row r="666" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D666" s="15"/>
+      <c r="D666" s="7"/>
     </row>
     <row r="667" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D667" s="15"/>
+      <c r="D667" s="7"/>
     </row>
     <row r="668" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D668" s="15"/>
+      <c r="D668" s="7"/>
     </row>
     <row r="669" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D669" s="15"/>
+      <c r="D669" s="7"/>
     </row>
     <row r="670" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D670" s="15"/>
+      <c r="D670" s="7"/>
     </row>
     <row r="671" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D671" s="15"/>
+      <c r="D671" s="7"/>
     </row>
     <row r="672" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D672" s="15"/>
+      <c r="D672" s="7"/>
     </row>
     <row r="673" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D673" s="15"/>
+      <c r="D673" s="7"/>
     </row>
     <row r="674" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D674" s="15"/>
+      <c r="D674" s="7"/>
     </row>
     <row r="675" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D675" s="15"/>
+      <c r="D675" s="7"/>
     </row>
     <row r="676" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D676" s="15"/>
+      <c r="D676" s="7"/>
     </row>
     <row r="677" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D677" s="15"/>
+      <c r="D677" s="7"/>
     </row>
     <row r="678" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D678" s="15"/>
+      <c r="D678" s="7"/>
     </row>
     <row r="679" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D679" s="15"/>
+      <c r="D679" s="7"/>
     </row>
     <row r="680" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D680" s="15"/>
+      <c r="D680" s="7"/>
     </row>
     <row r="681" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D681" s="15"/>
+      <c r="D681" s="7"/>
     </row>
     <row r="682" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D682" s="15"/>
+      <c r="D682" s="7"/>
     </row>
     <row r="683" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D683" s="15"/>
+      <c r="D683" s="7"/>
     </row>
     <row r="684" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D684" s="15"/>
+      <c r="D684" s="7"/>
     </row>
     <row r="685" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D685" s="15"/>
+      <c r="D685" s="7"/>
     </row>
     <row r="686" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D686" s="15"/>
+      <c r="D686" s="7"/>
     </row>
     <row r="687" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D687" s="15"/>
+      <c r="D687" s="7"/>
     </row>
     <row r="688" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D688" s="15"/>
+      <c r="D688" s="7"/>
     </row>
     <row r="689" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D689" s="15"/>
+      <c r="D689" s="7"/>
     </row>
     <row r="690" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D690" s="15"/>
+      <c r="D690" s="7"/>
     </row>
     <row r="691" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D691" s="15"/>
+      <c r="D691" s="7"/>
     </row>
     <row r="692" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D692" s="15"/>
+      <c r="D692" s="7"/>
     </row>
     <row r="693" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D693" s="15"/>
+      <c r="D693" s="7"/>
     </row>
     <row r="694" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D694" s="15"/>
+      <c r="D694" s="7"/>
     </row>
     <row r="695" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D695" s="15"/>
+      <c r="D695" s="7"/>
     </row>
     <row r="696" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D696" s="15"/>
+      <c r="D696" s="7"/>
     </row>
     <row r="697" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D697" s="15"/>
+      <c r="D697" s="7"/>
     </row>
     <row r="698" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D698" s="15"/>
+      <c r="D698" s="7"/>
     </row>
     <row r="699" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D699" s="15"/>
+      <c r="D699" s="7"/>
     </row>
     <row r="700" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D700" s="15"/>
+      <c r="D700" s="7"/>
     </row>
     <row r="701" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D701" s="15"/>
+      <c r="D701" s="7"/>
     </row>
     <row r="702" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D702" s="15"/>
+      <c r="D702" s="7"/>
     </row>
     <row r="703" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D703" s="15"/>
+      <c r="D703" s="7"/>
     </row>
     <row r="704" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D704" s="15"/>
+      <c r="D704" s="7"/>
     </row>
     <row r="705" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D705" s="15"/>
+      <c r="D705" s="7"/>
     </row>
     <row r="706" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D706" s="15"/>
+      <c r="D706" s="7"/>
     </row>
     <row r="707" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D707" s="15"/>
+      <c r="D707" s="7"/>
     </row>
     <row r="708" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D708" s="15"/>
+      <c r="D708" s="7"/>
     </row>
     <row r="709" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D709" s="15"/>
+      <c r="D709" s="7"/>
     </row>
     <row r="710" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D710" s="15"/>
+      <c r="D710" s="7"/>
     </row>
     <row r="711" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D711" s="15"/>
+      <c r="D711" s="7"/>
     </row>
     <row r="712" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D712" s="15"/>
+      <c r="D712" s="7"/>
     </row>
     <row r="713" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D713" s="15"/>
+      <c r="D713" s="7"/>
     </row>
     <row r="714" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D714" s="15"/>
+      <c r="D714" s="7"/>
     </row>
     <row r="715" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D715" s="15"/>
+      <c r="D715" s="7"/>
     </row>
     <row r="716" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D716" s="15"/>
+      <c r="D716" s="7"/>
     </row>
     <row r="717" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D717" s="15"/>
+      <c r="D717" s="7"/>
     </row>
     <row r="718" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D718" s="15"/>
+      <c r="D718" s="7"/>
     </row>
     <row r="719" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D719" s="15"/>
+      <c r="D719" s="7"/>
     </row>
     <row r="720" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D720" s="15"/>
+      <c r="D720" s="7"/>
     </row>
     <row r="721" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D721" s="15"/>
+      <c r="D721" s="7"/>
     </row>
     <row r="722" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D722" s="15"/>
+      <c r="D722" s="7"/>
     </row>
     <row r="723" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D723" s="15"/>
+      <c r="D723" s="7"/>
     </row>
     <row r="724" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D724" s="15"/>
+      <c r="D724" s="7"/>
     </row>
     <row r="725" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D725" s="15"/>
+      <c r="D725" s="7"/>
     </row>
     <row r="726" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D726" s="15"/>
+      <c r="D726" s="7"/>
     </row>
     <row r="727" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D727" s="15"/>
+      <c r="D727" s="7"/>
     </row>
     <row r="728" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D728" s="15"/>
+      <c r="D728" s="7"/>
     </row>
     <row r="729" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D729" s="15"/>
+      <c r="D729" s="7"/>
     </row>
     <row r="730" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D730" s="15"/>
+      <c r="D730" s="7"/>
     </row>
     <row r="731" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D731" s="15"/>
+      <c r="D731" s="7"/>
     </row>
     <row r="732" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D732" s="15"/>
+      <c r="D732" s="7"/>
     </row>
     <row r="733" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D733" s="15"/>
+      <c r="D733" s="7"/>
     </row>
     <row r="734" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D734" s="15"/>
+      <c r="D734" s="7"/>
     </row>
     <row r="735" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D735" s="15"/>
+      <c r="D735" s="7"/>
     </row>
     <row r="736" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D736" s="15"/>
+      <c r="D736" s="7"/>
     </row>
     <row r="737" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D737" s="15"/>
+      <c r="D737" s="7"/>
     </row>
     <row r="738" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D738" s="15"/>
+      <c r="D738" s="7"/>
     </row>
     <row r="739" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D739" s="15"/>
+      <c r="D739" s="7"/>
     </row>
     <row r="740" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D740" s="15"/>
+      <c r="D740" s="7"/>
     </row>
     <row r="741" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D741" s="15"/>
+      <c r="D741" s="7"/>
     </row>
     <row r="742" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D742" s="15"/>
+      <c r="D742" s="7"/>
     </row>
     <row r="743" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D743" s="15"/>
+      <c r="D743" s="7"/>
     </row>
     <row r="744" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D744" s="15"/>
+      <c r="D744" s="7"/>
     </row>
     <row r="745" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D745" s="15"/>
+      <c r="D745" s="7"/>
     </row>
     <row r="746" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D746" s="15"/>
+      <c r="D746" s="7"/>
     </row>
     <row r="747" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D747" s="15"/>
+      <c r="D747" s="7"/>
     </row>
     <row r="748" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D748" s="15"/>
+      <c r="D748" s="7"/>
     </row>
     <row r="749" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D749" s="15"/>
+      <c r="D749" s="7"/>
     </row>
     <row r="750" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D750" s="15"/>
+      <c r="D750" s="7"/>
     </row>
     <row r="751" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D751" s="15"/>
+      <c r="D751" s="7"/>
     </row>
     <row r="752" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D752" s="15"/>
+      <c r="D752" s="7"/>
     </row>
     <row r="753" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D753" s="15"/>
+      <c r="D753" s="7"/>
     </row>
     <row r="754" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D754" s="15"/>
+      <c r="D754" s="7"/>
     </row>
     <row r="755" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D755" s="15"/>
+      <c r="D755" s="7"/>
     </row>
     <row r="756" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D756" s="15"/>
+      <c r="D756" s="7"/>
     </row>
     <row r="757" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D757" s="15"/>
+      <c r="D757" s="7"/>
     </row>
     <row r="758" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D758" s="15"/>
+      <c r="D758" s="7"/>
     </row>
     <row r="759" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D759" s="15"/>
+      <c r="D759" s="7"/>
     </row>
     <row r="760" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D760" s="15"/>
+      <c r="D760" s="7"/>
     </row>
     <row r="761" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D761" s="15"/>
+      <c r="D761" s="7"/>
     </row>
     <row r="762" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D762" s="15"/>
+      <c r="D762" s="7"/>
     </row>
     <row r="763" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D763" s="15"/>
+      <c r="D763" s="7"/>
     </row>
     <row r="764" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D764" s="15"/>
+      <c r="D764" s="7"/>
     </row>
     <row r="765" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D765" s="15"/>
+      <c r="D765" s="7"/>
     </row>
     <row r="766" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D766" s="15"/>
+      <c r="D766" s="7"/>
     </row>
     <row r="767" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D767" s="15"/>
+      <c r="D767" s="7"/>
     </row>
     <row r="768" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D768" s="15"/>
+      <c r="D768" s="7"/>
     </row>
     <row r="769" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D769" s="15"/>
+      <c r="D769" s="7"/>
     </row>
     <row r="770" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D770" s="15"/>
+      <c r="D770" s="7"/>
     </row>
     <row r="771" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D771" s="15"/>
+      <c r="D771" s="7"/>
     </row>
     <row r="772" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D772" s="15"/>
+      <c r="D772" s="7"/>
     </row>
     <row r="773" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D773" s="15"/>
+      <c r="D773" s="7"/>
     </row>
     <row r="774" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D774" s="15"/>
+      <c r="D774" s="7"/>
     </row>
     <row r="775" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D775" s="15"/>
+      <c r="D775" s="7"/>
     </row>
     <row r="776" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D776" s="15"/>
+      <c r="D776" s="7"/>
     </row>
     <row r="777" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D777" s="15"/>
+      <c r="D777" s="7"/>
     </row>
     <row r="778" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D778" s="15"/>
+      <c r="D778" s="7"/>
     </row>
     <row r="779" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D779" s="15"/>
+      <c r="D779" s="7"/>
     </row>
     <row r="780" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D780" s="15"/>
+      <c r="D780" s="7"/>
     </row>
     <row r="781" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D781" s="15"/>
+      <c r="D781" s="7"/>
     </row>
     <row r="782" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D782" s="15"/>
+      <c r="D782" s="7"/>
     </row>
     <row r="783" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D783" s="15"/>
+      <c r="D783" s="7"/>
     </row>
     <row r="784" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D784" s="15"/>
+      <c r="D784" s="7"/>
     </row>
     <row r="785" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D785" s="15"/>
+      <c r="D785" s="7"/>
     </row>
     <row r="786" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D786" s="15"/>
+      <c r="D786" s="7"/>
     </row>
     <row r="787" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D787" s="15"/>
+      <c r="D787" s="7"/>
     </row>
     <row r="788" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D788" s="15"/>
+      <c r="D788" s="7"/>
     </row>
     <row r="789" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D789" s="15"/>
+      <c r="D789" s="7"/>
     </row>
     <row r="790" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D790" s="15"/>
+      <c r="D790" s="7"/>
     </row>
     <row r="791" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D791" s="15"/>
+      <c r="D791" s="7"/>
     </row>
     <row r="792" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D792" s="15"/>
+      <c r="D792" s="7"/>
     </row>
     <row r="793" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D793" s="15"/>
+      <c r="D793" s="7"/>
     </row>
     <row r="794" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D794" s="15"/>
+      <c r="D794" s="7"/>
     </row>
     <row r="795" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D795" s="15"/>
+      <c r="D795" s="7"/>
     </row>
     <row r="796" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D796" s="15"/>
+      <c r="D796" s="7"/>
     </row>
     <row r="797" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D797" s="15"/>
+      <c r="D797" s="7"/>
     </row>
     <row r="798" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D798" s="15"/>
+      <c r="D798" s="7"/>
     </row>
     <row r="799" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D799" s="15"/>
+      <c r="D799" s="7"/>
     </row>
     <row r="800" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D800" s="15"/>
+      <c r="D800" s="7"/>
     </row>
     <row r="801" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D801" s="15"/>
+      <c r="D801" s="7"/>
     </row>
     <row r="802" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D802" s="15"/>
+      <c r="D802" s="7"/>
     </row>
     <row r="803" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D803" s="15"/>
+      <c r="D803" s="7"/>
     </row>
     <row r="804" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D804" s="15"/>
+      <c r="D804" s="7"/>
     </row>
     <row r="805" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D805" s="15"/>
+      <c r="D805" s="7"/>
     </row>
     <row r="806" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D806" s="15"/>
+      <c r="D806" s="7"/>
     </row>
     <row r="807" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D807" s="15"/>
+      <c r="D807" s="7"/>
     </row>
     <row r="808" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D808" s="15"/>
+      <c r="D808" s="7"/>
     </row>
     <row r="809" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D809" s="15"/>
+      <c r="D809" s="7"/>
     </row>
     <row r="810" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D810" s="15"/>
+      <c r="D810" s="7"/>
     </row>
     <row r="811" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D811" s="15"/>
+      <c r="D811" s="7"/>
     </row>
     <row r="812" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D812" s="15"/>
+      <c r="D812" s="7"/>
     </row>
     <row r="813" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D813" s="15"/>
+      <c r="D813" s="7"/>
     </row>
     <row r="814" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D814" s="15"/>
+      <c r="D814" s="7"/>
     </row>
     <row r="815" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D815" s="15"/>
+      <c r="D815" s="7"/>
     </row>
     <row r="816" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D816" s="15"/>
+      <c r="D816" s="7"/>
     </row>
     <row r="817" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D817" s="15"/>
+      <c r="D817" s="7"/>
     </row>
     <row r="818" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D818" s="15"/>
+      <c r="D818" s="7"/>
     </row>
     <row r="819" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D819" s="15"/>
+      <c r="D819" s="7"/>
     </row>
     <row r="820" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D820" s="15"/>
+      <c r="D820" s="7"/>
     </row>
     <row r="821" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D821" s="15"/>
+      <c r="D821" s="7"/>
     </row>
     <row r="822" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D822" s="15"/>
+      <c r="D822" s="7"/>
     </row>
     <row r="823" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D823" s="15"/>
+      <c r="D823" s="7"/>
     </row>
     <row r="824" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D824" s="15"/>
+      <c r="D824" s="7"/>
     </row>
     <row r="825" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D825" s="15"/>
+      <c r="D825" s="7"/>
     </row>
     <row r="826" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D826" s="15"/>
+      <c r="D826" s="7"/>
     </row>
     <row r="827" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D827" s="15"/>
+      <c r="D827" s="7"/>
     </row>
     <row r="828" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D828" s="15"/>
+      <c r="D828" s="7"/>
     </row>
     <row r="829" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D829" s="15"/>
+      <c r="D829" s="7"/>
     </row>
     <row r="830" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D830" s="15"/>
+      <c r="D830" s="7"/>
     </row>
     <row r="831" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D831" s="15"/>
+      <c r="D831" s="7"/>
     </row>
     <row r="832" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D832" s="15"/>
+      <c r="D832" s="7"/>
     </row>
     <row r="833" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D833" s="15"/>
+      <c r="D833" s="7"/>
     </row>
     <row r="834" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D834" s="15"/>
+      <c r="D834" s="7"/>
     </row>
     <row r="835" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D835" s="15"/>
+      <c r="D835" s="7"/>
     </row>
     <row r="836" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D836" s="15"/>
+      <c r="D836" s="7"/>
     </row>
     <row r="837" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D837" s="15"/>
+      <c r="D837" s="7"/>
     </row>
     <row r="838" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D838" s="15"/>
+      <c r="D838" s="7"/>
     </row>
     <row r="839" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D839" s="15"/>
+      <c r="D839" s="7"/>
     </row>
     <row r="840" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D840" s="15"/>
+      <c r="D840" s="7"/>
     </row>
     <row r="841" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D841" s="15"/>
+      <c r="D841" s="7"/>
     </row>
     <row r="842" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D842" s="15"/>
+      <c r="D842" s="7"/>
     </row>
     <row r="843" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D843" s="15"/>
+      <c r="D843" s="7"/>
     </row>
     <row r="844" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D844" s="15"/>
+      <c r="D844" s="7"/>
     </row>
     <row r="845" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D845" s="15"/>
+      <c r="D845" s="7"/>
     </row>
     <row r="846" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D846" s="15"/>
+      <c r="D846" s="7"/>
     </row>
     <row r="847" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D847" s="15"/>
+      <c r="D847" s="7"/>
     </row>
     <row r="848" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D848" s="15"/>
+      <c r="D848" s="7"/>
     </row>
     <row r="849" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D849" s="15"/>
+      <c r="D849" s="7"/>
     </row>
     <row r="850" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D850" s="15"/>
+      <c r="D850" s="7"/>
     </row>
     <row r="851" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D851" s="15"/>
+      <c r="D851" s="7"/>
     </row>
     <row r="852" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D852" s="15"/>
+      <c r="D852" s="7"/>
     </row>
     <row r="853" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D853" s="15"/>
+      <c r="D853" s="7"/>
     </row>
     <row r="854" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D854" s="15"/>
+      <c r="D854" s="7"/>
     </row>
     <row r="855" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D855" s="15"/>
+      <c r="D855" s="7"/>
     </row>
     <row r="856" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D856" s="15"/>
+      <c r="D856" s="7"/>
     </row>
     <row r="857" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D857" s="15"/>
+      <c r="D857" s="7"/>
     </row>
     <row r="858" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D858" s="15"/>
+      <c r="D858" s="7"/>
     </row>
     <row r="859" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D859" s="15"/>
+      <c r="D859" s="7"/>
     </row>
     <row r="860" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D860" s="15"/>
+      <c r="D860" s="7"/>
     </row>
     <row r="861" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D861" s="15"/>
+      <c r="D861" s="7"/>
     </row>
     <row r="862" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D862" s="15"/>
+      <c r="D862" s="7"/>
     </row>
     <row r="863" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D863" s="15"/>
+      <c r="D863" s="7"/>
     </row>
     <row r="864" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D864" s="15"/>
+      <c r="D864" s="7"/>
     </row>
     <row r="865" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D865" s="15"/>
+      <c r="D865" s="7"/>
     </row>
     <row r="866" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D866" s="15"/>
+      <c r="D866" s="7"/>
     </row>
     <row r="867" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D867" s="15"/>
+      <c r="D867" s="7"/>
     </row>
     <row r="868" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D868" s="15"/>
+      <c r="D868" s="7"/>
     </row>
     <row r="869" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D869" s="15"/>
+      <c r="D869" s="7"/>
     </row>
     <row r="870" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D870" s="15"/>
+      <c r="D870" s="7"/>
     </row>
     <row r="871" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D871" s="15"/>
+      <c r="D871" s="7"/>
     </row>
     <row r="872" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D872" s="15"/>
+      <c r="D872" s="7"/>
     </row>
     <row r="873" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D873" s="15"/>
+      <c r="D873" s="7"/>
     </row>
     <row r="874" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D874" s="15"/>
+      <c r="D874" s="7"/>
     </row>
     <row r="875" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D875" s="15"/>
+      <c r="D875" s="7"/>
     </row>
     <row r="876" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D876" s="15"/>
+      <c r="D876" s="7"/>
     </row>
     <row r="877" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D877" s="15"/>
+      <c r="D877" s="7"/>
     </row>
     <row r="878" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D878" s="15"/>
+      <c r="D878" s="7"/>
     </row>
     <row r="879" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D879" s="15"/>
+      <c r="D879" s="7"/>
     </row>
     <row r="880" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D880" s="15"/>
+      <c r="D880" s="7"/>
     </row>
     <row r="881" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D881" s="15"/>
+      <c r="D881" s="7"/>
     </row>
     <row r="882" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D882" s="15"/>
+      <c r="D882" s="7"/>
     </row>
     <row r="883" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D883" s="15"/>
+      <c r="D883" s="7"/>
     </row>
     <row r="884" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D884" s="15"/>
+      <c r="D884" s="7"/>
     </row>
     <row r="885" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D885" s="15"/>
+      <c r="D885" s="7"/>
     </row>
     <row r="886" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D886" s="15"/>
+      <c r="D886" s="7"/>
     </row>
     <row r="887" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D887" s="15"/>
+      <c r="D887" s="7"/>
     </row>
     <row r="888" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D888" s="15"/>
+      <c r="D888" s="7"/>
     </row>
     <row r="889" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D889" s="15"/>
+      <c r="D889" s="7"/>
     </row>
     <row r="890" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D890" s="15"/>
+      <c r="D890" s="7"/>
     </row>
     <row r="891" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D891" s="15"/>
+      <c r="D891" s="7"/>
     </row>
     <row r="892" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D892" s="15"/>
+      <c r="D892" s="7"/>
     </row>
     <row r="893" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D893" s="15"/>
+      <c r="D893" s="7"/>
     </row>
     <row r="894" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D894" s="15"/>
+      <c r="D894" s="7"/>
     </row>
     <row r="895" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D895" s="15"/>
+      <c r="D895" s="7"/>
     </row>
     <row r="896" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D896" s="15"/>
+      <c r="D896" s="7"/>
     </row>
     <row r="897" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D897" s="15"/>
+      <c r="D897" s="7"/>
     </row>
     <row r="898" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D898" s="15"/>
+      <c r="D898" s="7"/>
     </row>
     <row r="899" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D899" s="15"/>
+      <c r="D899" s="7"/>
     </row>
     <row r="900" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D900" s="15"/>
+      <c r="D900" s="7"/>
     </row>
     <row r="901" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D901" s="15"/>
+      <c r="D901" s="7"/>
     </row>
     <row r="902" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D902" s="15"/>
+      <c r="D902" s="7"/>
     </row>
     <row r="903" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D903" s="15"/>
+      <c r="D903" s="7"/>
     </row>
     <row r="904" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D904" s="15"/>
+      <c r="D904" s="7"/>
     </row>
     <row r="905" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D905" s="15"/>
+      <c r="D905" s="7"/>
     </row>
     <row r="906" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D906" s="15"/>
+      <c r="D906" s="7"/>
     </row>
     <row r="907" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D907" s="15"/>
+      <c r="D907" s="7"/>
     </row>
     <row r="908" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D908" s="15"/>
+      <c r="D908" s="7"/>
     </row>
     <row r="909" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D909" s="15"/>
+      <c r="D909" s="7"/>
     </row>
     <row r="910" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D910" s="15"/>
+      <c r="D910" s="7"/>
     </row>
     <row r="911" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D911" s="15"/>
+      <c r="D911" s="7"/>
     </row>
     <row r="912" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D912" s="15"/>
+      <c r="D912" s="7"/>
     </row>
     <row r="913" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D913" s="15"/>
+      <c r="D913" s="7"/>
     </row>
     <row r="914" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D914" s="15"/>
+      <c r="D914" s="7"/>
     </row>
     <row r="915" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D915" s="15"/>
+      <c r="D915" s="7"/>
     </row>
     <row r="916" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D916" s="15"/>
+      <c r="D916" s="7"/>
     </row>
     <row r="917" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D917" s="15"/>
+      <c r="D917" s="7"/>
     </row>
     <row r="918" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D918" s="15"/>
+      <c r="D918" s="7"/>
     </row>
     <row r="919" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D919" s="15"/>
+      <c r="D919" s="7"/>
     </row>
     <row r="920" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D920" s="15"/>
+      <c r="D920" s="7"/>
     </row>
     <row r="921" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D921" s="15"/>
+      <c r="D921" s="7"/>
     </row>
     <row r="922" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D922" s="15"/>
+      <c r="D922" s="7"/>
     </row>
     <row r="923" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D923" s="15"/>
+      <c r="D923" s="7"/>
     </row>
     <row r="924" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D924" s="15"/>
+      <c r="D924" s="7"/>
     </row>
     <row r="925" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D925" s="15"/>
+      <c r="D925" s="7"/>
     </row>
     <row r="926" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D926" s="15"/>
+      <c r="D926" s="7"/>
     </row>
     <row r="927" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D927" s="15"/>
+      <c r="D927" s="7"/>
     </row>
     <row r="928" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D928" s="15"/>
+      <c r="D928" s="7"/>
     </row>
     <row r="929" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D929" s="15"/>
+      <c r="D929" s="7"/>
     </row>
     <row r="930" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D930" s="15"/>
+      <c r="D930" s="7"/>
     </row>
     <row r="931" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D931" s="15"/>
+      <c r="D931" s="7"/>
     </row>
     <row r="932" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D932" s="15"/>
+      <c r="D932" s="7"/>
     </row>
     <row r="933" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D933" s="15"/>
+      <c r="D933" s="7"/>
     </row>
     <row r="934" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D934" s="15"/>
+      <c r="D934" s="7"/>
     </row>
     <row r="935" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D935" s="15"/>
+      <c r="D935" s="7"/>
     </row>
     <row r="936" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D936" s="15"/>
+      <c r="D936" s="7"/>
     </row>
     <row r="937" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D937" s="15"/>
+      <c r="D937" s="7"/>
     </row>
     <row r="938" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D938" s="15"/>
+      <c r="D938" s="7"/>
     </row>
     <row r="939" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D939" s="15"/>
+      <c r="D939" s="7"/>
     </row>
     <row r="940" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D940" s="15"/>
+      <c r="D940" s="7"/>
     </row>
     <row r="941" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D941" s="15"/>
+      <c r="D941" s="7"/>
     </row>
     <row r="942" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D942" s="15"/>
+      <c r="D942" s="7"/>
     </row>
     <row r="943" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D943" s="15"/>
+      <c r="D943" s="7"/>
     </row>
     <row r="944" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D944" s="15"/>
+      <c r="D944" s="7"/>
     </row>
     <row r="945" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D945" s="15"/>
+      <c r="D945" s="7"/>
     </row>
     <row r="946" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D946" s="15"/>
+      <c r="D946" s="7"/>
     </row>
     <row r="947" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D947" s="15"/>
+      <c r="D947" s="7"/>
     </row>
     <row r="948" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D948" s="15"/>
+      <c r="D948" s="7"/>
     </row>
     <row r="949" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D949" s="15"/>
+      <c r="D949" s="7"/>
     </row>
     <row r="950" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D950" s="15"/>
+      <c r="D950" s="7"/>
     </row>
     <row r="951" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D951" s="15"/>
+      <c r="D951" s="7"/>
     </row>
     <row r="952" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D952" s="15"/>
+      <c r="D952" s="7"/>
     </row>
     <row r="953" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D953" s="15"/>
+      <c r="D953" s="7"/>
     </row>
     <row r="954" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D954" s="15"/>
+      <c r="D954" s="7"/>
     </row>
     <row r="955" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D955" s="15"/>
+      <c r="D955" s="7"/>
     </row>
     <row r="956" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D956" s="15"/>
+      <c r="D956" s="7"/>
     </row>
     <row r="957" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D957" s="15"/>
+      <c r="D957" s="7"/>
     </row>
     <row r="958" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D958" s="15"/>
+      <c r="D958" s="7"/>
     </row>
     <row r="959" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D959" s="15"/>
+      <c r="D959" s="7"/>
     </row>
     <row r="960" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D960" s="15"/>
+      <c r="D960" s="7"/>
     </row>
     <row r="961" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D961" s="15"/>
+      <c r="D961" s="7"/>
     </row>
     <row r="962" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D962" s="15"/>
+      <c r="D962" s="7"/>
     </row>
     <row r="963" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D963" s="15"/>
+      <c r="D963" s="7"/>
     </row>
     <row r="964" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D964" s="15"/>
+      <c r="D964" s="7"/>
     </row>
     <row r="965" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D965" s="15"/>
+      <c r="D965" s="7"/>
     </row>
     <row r="966" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D966" s="15"/>
+      <c r="D966" s="7"/>
     </row>
     <row r="967" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D967" s="15"/>
+      <c r="D967" s="7"/>
     </row>
     <row r="968" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D968" s="15"/>
+      <c r="D968" s="7"/>
     </row>
     <row r="969" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D969" s="15"/>
+      <c r="D969" s="7"/>
     </row>
     <row r="970" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D970" s="15"/>
+      <c r="D970" s="7"/>
     </row>
     <row r="971" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D971" s="15"/>
+      <c r="D971" s="7"/>
     </row>
     <row r="972" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D972" s="15"/>
+      <c r="D972" s="7"/>
     </row>
     <row r="973" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D973" s="15"/>
+      <c r="D973" s="7"/>
     </row>
     <row r="974" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D974" s="15"/>
+      <c r="D974" s="7"/>
     </row>
     <row r="975" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D975" s="15"/>
+      <c r="D975" s="7"/>
     </row>
     <row r="976" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D976" s="15"/>
+      <c r="D976" s="7"/>
     </row>
     <row r="977" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D977" s="15"/>
+      <c r="D977" s="7"/>
     </row>
     <row r="978" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D978" s="15"/>
+      <c r="D978" s="7"/>
     </row>
     <row r="979" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D979" s="15"/>
+      <c r="D979" s="7"/>
     </row>
     <row r="980" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D980" s="15"/>
+      <c r="D980" s="7"/>
     </row>
     <row r="981" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D981" s="15"/>
+      <c r="D981" s="7"/>
     </row>
     <row r="982" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D982" s="15"/>
+      <c r="D982" s="7"/>
     </row>
     <row r="983" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D983" s="15"/>
+      <c r="D983" s="7"/>
     </row>
     <row r="984" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D984" s="15"/>
+      <c r="D984" s="7"/>
     </row>
     <row r="985" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D985" s="15"/>
+      <c r="D985" s="7"/>
     </row>
     <row r="986" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D986" s="15"/>
+      <c r="D986" s="7"/>
     </row>
     <row r="987" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D987" s="15"/>
+      <c r="D987" s="7"/>
     </row>
     <row r="988" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D988" s="15"/>
+      <c r="D988" s="7"/>
     </row>
     <row r="989" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D989" s="15"/>
+      <c r="D989" s="7"/>
     </row>
     <row r="990" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D990" s="15"/>
+      <c r="D990" s="7"/>
     </row>
     <row r="991" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D991" s="15"/>
+      <c r="D991" s="7"/>
     </row>
     <row r="992" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D992" s="15"/>
+      <c r="D992" s="7"/>
     </row>
     <row r="993" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D993" s="15"/>
+      <c r="D993" s="7"/>
     </row>
     <row r="994" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D994" s="15"/>
+      <c r="D994" s="7"/>
     </row>
     <row r="995" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D995" s="15"/>
+      <c r="D995" s="7"/>
     </row>
     <row r="996" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D996" s="15"/>
+      <c r="D996" s="7"/>
     </row>
     <row r="997" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D997" s="15"/>
+      <c r="D997" s="7"/>
     </row>
     <row r="998" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D998" s="15"/>
+      <c r="D998" s="7"/>
     </row>
     <row r="999" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D999" s="15"/>
+      <c r="D999" s="7"/>
     </row>
     <row r="1000" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1000" s="15"/>
+      <c r="D1000" s="7"/>
     </row>
     <row r="1001" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1001" s="15"/>
+      <c r="D1001" s="7"/>
     </row>
     <row r="1002" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1002" s="15"/>
+      <c r="D1002" s="7"/>
     </row>
     <row r="1003" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1003" s="15"/>
+      <c r="D1003" s="7"/>
     </row>
     <row r="1004" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1004" s="15"/>
+      <c r="D1004" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A21:E80" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="26">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A70:A80"/>
     <mergeCell ref="A29:A39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:A56"/>
     <mergeCell ref="A58:A65"/>
     <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8308,8 +8181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8322,26 +8195,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8354,8 +8227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K995"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8367,7 +8240,7 @@
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="29.109375" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="28.5546875" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
     <col min="11" max="11" width="23.5546875" customWidth="1"/>
@@ -8375,38 +8248,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="J1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>189</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9414,8 +9287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9438,60 +9311,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P2" s="56"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P3" s="56"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10501,7 +10374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10513,20 +10388,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="57" t="s">
         <v>192</v>
-      </c>
-      <c r="E1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11540,7 +11415,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11551,10 +11426,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12567,8 +12442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12587,37 +12462,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="35" t="s">
         <v>183</v>
       </c>
     </row>
@@ -12632,8 +12507,8 @@
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
